--- a/data/source/Consumer Retail and Healthcare Pipeline.xlsx
+++ b/data/source/Consumer Retail and Healthcare Pipeline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeannieb\Documents\Excel Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankur/Documents/GitHub/data-migration-assessment/data/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2603082B-5E13-4D78-8694-9BD737EBBCAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4C8B23-72F5-9D43-9F96-D265A39D1748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23820" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CR&amp;H Master" sheetId="2" r:id="rId1"/>
@@ -2498,9 +2498,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0_);\(#,##0\);@_)"/>
-    <numFmt numFmtId="165" formatCode="mmm\-yy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -2599,7 +2598,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2620,7 +2619,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2645,224 +2643,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="112">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -2936,489 +2717,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -3732,35 +3030,35 @@
       <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="43.453125" customWidth="1"/>
-    <col min="3" max="4" width="17.1796875" customWidth="1"/>
-    <col min="5" max="5" width="26.453125" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="7" width="23.08984375" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="32.08984375" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="12.90625" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="38.1796875" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="23.1796875" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="21.36328125" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="20.6328125" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="27.54296875" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="12.90625" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="24.54296875" customWidth="1"/>
-    <col min="17" max="17" width="20.81640625" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="43.5" customWidth="1"/>
+    <col min="3" max="4" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="7" width="23.1640625" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="32.1640625" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="12.83203125" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="38.1640625" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="23.1640625" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="21.33203125" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="20.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="27.5" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="12.83203125" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="24.5" customWidth="1"/>
+    <col min="17" max="17" width="20.83203125" customWidth="1" outlineLevel="1"/>
     <col min="18" max="18" width="31" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="28.90625" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="26.453125" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="20.54296875" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="28.83203125" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="26.5" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="20.5" customWidth="1" outlineLevel="1"/>
     <col min="22" max="22" width="46" customWidth="1"/>
-    <col min="23" max="23" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>478</v>
       </c>
@@ -3779,28 +3077,28 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="17" t="s">
         <v>611</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="18"/>
+      <c r="T1" s="17"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B2" s="3"/>
       <c r="S2" s="4"/>
-      <c r="T2" s="17"/>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="T2" s="16"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B3" s="3"/>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.2">
       <c r="J4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
@@ -3810,7 +3108,7 @@
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.2">
       <c r="J5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
@@ -3820,7 +3118,7 @@
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.2">
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="Q6" s="4"/>
@@ -3828,7 +3126,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="Q7" s="4"/>
@@ -3836,7 +3134,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.2">
       <c r="D8" s="4" t="s">
         <v>19</v>
       </c>
@@ -3850,7 +3148,7 @@
       <c r="V8" s="4"/>
       <c r="W8" s="9"/>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>0</v>
       </c>
@@ -3918,11 +3216,11 @@
         <v>656</v>
       </c>
     </row>
-    <row r="10" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>427</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>43123</v>
       </c>
       <c r="G10" t="s">
@@ -3957,18 +3255,18 @@
       <c r="V10" t="s">
         <v>447</v>
       </c>
-      <c r="W10" s="22" t="s">
+      <c r="W10" s="21" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>148</v>
       </c>
       <c r="C11" t="s">
         <v>551</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>42979</v>
       </c>
       <c r="E11" t="s">
@@ -4018,15 +3316,15 @@
       <c r="V11" t="s">
         <v>395</v>
       </c>
-      <c r="W11" s="22" t="s">
+      <c r="W11" s="21" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>428</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>43132</v>
       </c>
       <c r="E12" t="s">
@@ -4057,18 +3355,18 @@
       <c r="V12" t="s">
         <v>448</v>
       </c>
-      <c r="W12" s="22" t="s">
+      <c r="W12" s="21" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>429</v>
       </c>
       <c r="C13" t="s">
         <v>500</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>43025</v>
       </c>
       <c r="E13" t="s">
@@ -4112,15 +3410,15 @@
       <c r="V13" t="s">
         <v>449</v>
       </c>
-      <c r="W13" s="22" t="s">
+      <c r="W13" s="21" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="14" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:23" ht="32" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>430</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="13">
         <v>43140</v>
       </c>
       <c r="E14" t="s">
@@ -4153,15 +3451,15 @@
       <c r="V14" t="s">
         <v>450</v>
       </c>
-      <c r="W14" s="22" t="s">
+      <c r="W14" s="21" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>431</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>42969</v>
       </c>
       <c r="E15" t="s">
@@ -4196,14 +3494,14 @@
         <v>791</v>
       </c>
     </row>
-    <row r="16" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>432</v>
       </c>
       <c r="C16" t="s">
         <v>552</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <v>43132</v>
       </c>
       <c r="E16" t="s">
@@ -4247,15 +3545,15 @@
       <c r="V16" t="s">
         <v>452</v>
       </c>
-      <c r="W16" s="22" t="s">
+      <c r="W16" s="21" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>433</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="13">
         <v>43132</v>
       </c>
       <c r="E17" t="s">
@@ -4286,15 +3584,15 @@
       <c r="V17" t="s">
         <v>453</v>
       </c>
-      <c r="W17" s="22" t="s">
+      <c r="W17" s="21" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>434</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="13">
         <v>43132</v>
       </c>
       <c r="E18" t="s">
@@ -4325,18 +3623,18 @@
       <c r="V18" t="s">
         <v>454</v>
       </c>
-      <c r="W18" s="22" t="s">
+      <c r="W18" s="21" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>435</v>
       </c>
       <c r="C19" t="s">
         <v>553</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="13">
         <v>43088</v>
       </c>
       <c r="E19" t="s">
@@ -4383,15 +3681,15 @@
       <c r="V19" t="s">
         <v>455</v>
       </c>
-      <c r="W19" s="22" t="s">
+      <c r="W19" s="21" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="20" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:23" ht="32" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>436</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <v>43132</v>
       </c>
       <c r="E20" t="s">
@@ -4424,15 +3722,15 @@
       <c r="V20" t="s">
         <v>456</v>
       </c>
-      <c r="W20" s="22" t="s">
+      <c r="W20" s="21" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>437</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="13">
         <v>43132</v>
       </c>
       <c r="E21" t="s">
@@ -4467,11 +3765,11 @@
         <v>791</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>438</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="13">
         <v>43070</v>
       </c>
       <c r="E22" t="s">
@@ -4514,11 +3812,11 @@
         <v>791</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>439</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="13">
         <v>42979</v>
       </c>
       <c r="E23" t="s">
@@ -4553,11 +3851,11 @@
         <v>791</v>
       </c>
     </row>
-    <row r="24" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>440</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="13">
         <v>43104</v>
       </c>
       <c r="E24" t="s">
@@ -4604,15 +3902,15 @@
       <c r="V24" t="s">
         <v>460</v>
       </c>
-      <c r="W24" s="22" t="s">
+      <c r="W24" s="21" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>441</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="13">
         <v>43101</v>
       </c>
       <c r="E25" t="s">
@@ -4643,15 +3941,15 @@
       <c r="V25" t="s">
         <v>461</v>
       </c>
-      <c r="W25" s="22" t="s">
+      <c r="W25" s="21" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>442</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="13">
         <v>43101</v>
       </c>
       <c r="G26" t="s">
@@ -4677,18 +3975,18 @@
       <c r="V26" t="s">
         <v>462</v>
       </c>
-      <c r="W26" s="22" t="s">
+      <c r="W26" s="21" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>443</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="19" t="s">
         <v>489</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="13">
         <v>43118</v>
       </c>
       <c r="E27" t="s">
@@ -4735,16 +4033,16 @@
       <c r="V27" t="s">
         <v>413</v>
       </c>
-      <c r="W27" s="22" t="s">
+      <c r="W27" s="21" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="28" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:23" ht="32" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>444</v>
       </c>
       <c r="C28" s="13"/>
-      <c r="D28" s="14">
+      <c r="D28" s="13">
         <v>42959</v>
       </c>
       <c r="G28" t="s">
@@ -4755,10 +4053,10 @@
       <c r="L28" s="10">
         <v>145</v>
       </c>
-      <c r="M28" s="19" t="s">
+      <c r="M28" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="N28" s="19" t="s">
+      <c r="N28" s="18" t="s">
         <v>648</v>
       </c>
       <c r="Q28" s="11" t="s">
@@ -4775,15 +4073,15 @@
       <c r="V28" t="s">
         <v>463</v>
       </c>
-      <c r="W28" s="22" t="s">
+      <c r="W28" s="21" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>445</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="13">
         <v>43103</v>
       </c>
       <c r="G29" t="s">
@@ -4831,14 +4129,14 @@
         <v>791</v>
       </c>
     </row>
-    <row r="30" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>792</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="19" t="s">
         <v>554</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="13">
         <v>43115</v>
       </c>
       <c r="E30" t="s">
@@ -4856,7 +4154,7 @@
       <c r="J30" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K30" s="16">
+      <c r="K30" s="15">
         <v>16.2</v>
       </c>
       <c r="L30" s="10">
@@ -4885,18 +4183,18 @@
       <c r="V30" t="s">
         <v>465</v>
       </c>
-      <c r="W30" s="22" t="s">
+      <c r="W30" s="21" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>793</v>
       </c>
       <c r="C31" t="s">
         <v>591</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="13">
         <v>43009</v>
       </c>
       <c r="E31" t="s">
@@ -4945,15 +4243,15 @@
       <c r="V31" t="s">
         <v>345</v>
       </c>
-      <c r="W31" s="22" t="s">
+      <c r="W31" s="21" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>794</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="13">
         <v>42644</v>
       </c>
       <c r="E32" t="s">
@@ -4991,15 +4289,15 @@
       <c r="V32" t="s">
         <v>263</v>
       </c>
-      <c r="W32" s="22" t="s">
+      <c r="W32" s="21" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>795</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="13">
         <v>43009</v>
       </c>
       <c r="E33" t="s">
@@ -5035,15 +4333,15 @@
       <c r="V33" t="s">
         <v>264</v>
       </c>
-      <c r="W33" s="22" t="s">
+      <c r="W33" s="21" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="34" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:23" ht="32" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>796</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="13">
         <v>42766</v>
       </c>
       <c r="E34" t="s">
@@ -5082,18 +4380,18 @@
       <c r="V34" t="s">
         <v>265</v>
       </c>
-      <c r="W34" s="22" t="s">
+      <c r="W34" s="21" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>797</v>
       </c>
       <c r="C35" t="s">
         <v>560</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="13">
         <v>42680</v>
       </c>
       <c r="E35" t="s">
@@ -5141,14 +4439,14 @@
         <v>791</v>
       </c>
     </row>
-    <row r="36" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>798</v>
       </c>
       <c r="C36" t="s">
         <v>574</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="13">
         <v>42670</v>
       </c>
       <c r="E36" t="s">
@@ -5197,15 +4495,15 @@
       <c r="V36" t="s">
         <v>267</v>
       </c>
-      <c r="W36" s="22" t="s">
+      <c r="W36" s="21" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>799</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="13">
         <v>42767</v>
       </c>
       <c r="E37" t="s">
@@ -5244,15 +4542,15 @@
       <c r="V37" t="s">
         <v>268</v>
       </c>
-      <c r="W37" s="22" t="s">
+      <c r="W37" s="21" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>800</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D38" s="13">
         <v>42670</v>
       </c>
       <c r="E38" t="s">
@@ -5284,18 +4582,18 @@
       <c r="V38" t="s">
         <v>263</v>
       </c>
-      <c r="W38" s="22" t="s">
+      <c r="W38" s="21" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>801</v>
       </c>
       <c r="C39" t="s">
         <v>593</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="13">
         <v>42632</v>
       </c>
       <c r="E39" t="s">
@@ -5339,15 +4637,15 @@
       <c r="V39" t="s">
         <v>269</v>
       </c>
-      <c r="W39" s="22" t="s">
+      <c r="W39" s="21" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="40" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:23" ht="32" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>802</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D40" s="13">
         <v>42780</v>
       </c>
       <c r="E40" t="s">
@@ -5378,15 +4676,15 @@
       <c r="V40" t="s">
         <v>270</v>
       </c>
-      <c r="W40" s="22" t="s">
+      <c r="W40" s="21" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>803</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D41" s="13">
         <v>42488</v>
       </c>
       <c r="E41" t="s">
@@ -5432,14 +4730,14 @@
         <v>791</v>
       </c>
     </row>
-    <row r="42" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>804</v>
       </c>
       <c r="C42" t="s">
         <v>594</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D42" s="13">
         <v>42786</v>
       </c>
       <c r="E42" t="s">
@@ -5486,15 +4784,15 @@
       <c r="V42" t="s">
         <v>272</v>
       </c>
-      <c r="W42" s="22" t="s">
+      <c r="W42" s="21" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>805</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D43" s="13">
         <v>42795</v>
       </c>
       <c r="E43" t="s">
@@ -5527,15 +4825,15 @@
       <c r="V43" t="s">
         <v>273</v>
       </c>
-      <c r="W43" s="22" t="s">
+      <c r="W43" s="21" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>806</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D44" s="13">
         <v>42736</v>
       </c>
       <c r="E44" t="s">
@@ -5572,15 +4870,15 @@
       <c r="V44" t="s">
         <v>274</v>
       </c>
-      <c r="W44" s="22" t="s">
+      <c r="W44" s="21" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>807</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D45" s="13">
         <v>42795</v>
       </c>
       <c r="E45" t="s">
@@ -5615,15 +4913,15 @@
       <c r="V45" t="s">
         <v>275</v>
       </c>
-      <c r="W45" s="22" t="s">
+      <c r="W45" s="21" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="46" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:23" ht="32" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>808</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D46" s="13">
         <v>42795</v>
       </c>
       <c r="E46" t="s">
@@ -5658,15 +4956,15 @@
       <c r="V46" t="s">
         <v>276</v>
       </c>
-      <c r="W46" s="22" t="s">
+      <c r="W46" s="21" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D47" s="13">
         <v>42795</v>
       </c>
       <c r="E47" t="s">
@@ -5701,11 +4999,11 @@
         <v>791</v>
       </c>
     </row>
-    <row r="48" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D48" s="13">
         <v>42804</v>
       </c>
       <c r="E48" t="s">
@@ -5738,15 +5036,15 @@
       <c r="V48" t="s">
         <v>278</v>
       </c>
-      <c r="W48" s="22" t="s">
+      <c r="W48" s="21" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D49" s="13">
         <v>42767</v>
       </c>
       <c r="E49" t="s">
@@ -5779,15 +5077,15 @@
       <c r="V49" t="s">
         <v>279</v>
       </c>
-      <c r="W49" s="22" t="s">
+      <c r="W49" s="21" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D50" s="13">
         <v>42767</v>
       </c>
       <c r="E50" t="s">
@@ -5816,15 +5114,15 @@
       <c r="V50" t="s">
         <v>280</v>
       </c>
-      <c r="W50" s="22" t="s">
+      <c r="W50" s="21" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="13">
         <v>42795</v>
       </c>
       <c r="E51" t="s">
@@ -5853,15 +5151,15 @@
       <c r="V51" t="s">
         <v>281</v>
       </c>
-      <c r="W51" s="22" t="s">
+      <c r="W51" s="21" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="52" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:23" ht="32" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="14">
+      <c r="D52" s="13">
         <v>42767</v>
       </c>
       <c r="E52" t="s">
@@ -5890,15 +5188,15 @@
       <c r="V52" t="s">
         <v>282</v>
       </c>
-      <c r="W52" s="22" t="s">
+      <c r="W52" s="21" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D53" s="13">
         <v>42767</v>
       </c>
       <c r="E53" t="s">
@@ -5931,14 +5229,14 @@
         <v>791</v>
       </c>
     </row>
-    <row r="54" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>33</v>
       </c>
       <c r="C54" t="s">
         <v>595</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D54" s="13">
         <v>42821</v>
       </c>
       <c r="E54" t="s">
@@ -5981,15 +5279,15 @@
       <c r="V54" t="s">
         <v>284</v>
       </c>
-      <c r="W54" s="22" t="s">
+      <c r="W54" s="21" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>34</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D55" s="13">
         <v>42795</v>
       </c>
       <c r="E55" t="s">
@@ -6022,15 +5320,15 @@
       <c r="V55" t="s">
         <v>285</v>
       </c>
-      <c r="W55" s="22" t="s">
+      <c r="W55" s="21" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>35</v>
       </c>
-      <c r="D56" s="14">
+      <c r="D56" s="13">
         <v>42795</v>
       </c>
       <c r="E56" t="s">
@@ -6063,15 +5361,15 @@
       <c r="V56" t="s">
         <v>286</v>
       </c>
-      <c r="W56" s="22" t="s">
+      <c r="W56" s="21" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D57" s="13">
         <v>42795</v>
       </c>
       <c r="E57" t="s">
@@ -6100,18 +5398,18 @@
       <c r="V57" t="s">
         <v>287</v>
       </c>
-      <c r="W57" s="22" t="s">
+      <c r="W57" s="21" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="58" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:23" ht="32" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>37</v>
       </c>
       <c r="C58" t="s">
         <v>577</v>
       </c>
-      <c r="D58" s="14">
+      <c r="D58" s="13">
         <v>42837</v>
       </c>
       <c r="E58" t="s">
@@ -6156,15 +5454,15 @@
       <c r="V58" t="s">
         <v>288</v>
       </c>
-      <c r="W58" s="22" t="s">
+      <c r="W58" s="21" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>38</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D59" s="13">
         <v>42843</v>
       </c>
       <c r="E59" t="s">
@@ -6197,11 +5495,11 @@
         <v>791</v>
       </c>
     </row>
-    <row r="60" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>39</v>
       </c>
-      <c r="D60" s="14">
+      <c r="D60" s="13">
         <v>42843</v>
       </c>
       <c r="E60" t="s">
@@ -6212,7 +5510,7 @@
       </c>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
-      <c r="K60" s="20"/>
+      <c r="K60" s="19"/>
       <c r="L60" s="10">
         <v>47</v>
       </c>
@@ -6231,15 +5529,15 @@
       <c r="V60" t="s">
         <v>290</v>
       </c>
-      <c r="W60" s="22" t="s">
+      <c r="W60" s="21" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>40</v>
       </c>
-      <c r="D61" s="14">
+      <c r="D61" s="13">
         <v>42676</v>
       </c>
       <c r="E61" t="s">
@@ -6286,15 +5584,15 @@
       <c r="V61" t="s">
         <v>291</v>
       </c>
-      <c r="W61" s="22" t="s">
+      <c r="W61" s="21" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>41</v>
       </c>
-      <c r="D62" s="14">
+      <c r="D62" s="13">
         <v>42843</v>
       </c>
       <c r="E62" t="s">
@@ -6333,15 +5631,15 @@
       <c r="V62" t="s">
         <v>292</v>
       </c>
-      <c r="W62" s="22" t="s">
+      <c r="W62" s="21" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>42</v>
       </c>
-      <c r="D63" s="14">
+      <c r="D63" s="13">
         <v>42795</v>
       </c>
       <c r="G63" t="s">
@@ -6372,15 +5670,15 @@
       <c r="V63" t="s">
         <v>293</v>
       </c>
-      <c r="W63" s="22" t="s">
+      <c r="W63" s="21" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="64" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:23" ht="32" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="14">
+      <c r="D64" s="13">
         <v>42826</v>
       </c>
       <c r="E64" t="s">
@@ -6416,15 +5714,15 @@
       <c r="V64" t="s">
         <v>294</v>
       </c>
-      <c r="W64" s="22" t="s">
+      <c r="W64" s="21" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="14">
+      <c r="D65" s="13">
         <v>42826</v>
       </c>
       <c r="E65" t="s">
@@ -6461,11 +5759,11 @@
         <v>791</v>
       </c>
     </row>
-    <row r="66" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>45</v>
       </c>
-      <c r="D66" s="14">
+      <c r="D66" s="13">
         <v>42843</v>
       </c>
       <c r="E66" t="s">
@@ -6498,18 +5796,18 @@
       <c r="V66" t="s">
         <v>296</v>
       </c>
-      <c r="W66" s="22" t="s">
+      <c r="W66" s="21" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>46</v>
       </c>
       <c r="C67" t="s">
         <v>597</v>
       </c>
-      <c r="D67" s="14">
+      <c r="D67" s="13">
         <v>42846</v>
       </c>
       <c r="E67" t="s">
@@ -6547,15 +5845,15 @@
       <c r="V67" t="s">
         <v>297</v>
       </c>
-      <c r="W67" s="22" t="s">
+      <c r="W67" s="21" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>47</v>
       </c>
-      <c r="D68" s="14">
+      <c r="D68" s="13">
         <v>42826</v>
       </c>
       <c r="E68" t="s">
@@ -6584,18 +5882,18 @@
       <c r="V68" t="s">
         <v>298</v>
       </c>
-      <c r="W68" s="22" t="s">
+      <c r="W68" s="21" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>48</v>
       </c>
       <c r="C69" t="s">
         <v>580</v>
       </c>
-      <c r="D69" s="14">
+      <c r="D69" s="13">
         <v>42851</v>
       </c>
       <c r="E69" t="s">
@@ -6641,15 +5939,15 @@
       <c r="V69" t="s">
         <v>299</v>
       </c>
-      <c r="W69" s="22" t="s">
+      <c r="W69" s="21" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="70" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:23" ht="32" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>49</v>
       </c>
-      <c r="D70" s="14">
+      <c r="D70" s="13">
         <v>42843</v>
       </c>
       <c r="E70" t="s">
@@ -6685,18 +5983,18 @@
       <c r="V70" t="s">
         <v>300</v>
       </c>
-      <c r="W70" s="22" t="s">
+      <c r="W70" s="21" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>50</v>
       </c>
       <c r="C71" t="s">
         <v>583</v>
       </c>
-      <c r="D71" s="14">
+      <c r="D71" s="13">
         <v>42874</v>
       </c>
       <c r="E71" t="s">
@@ -6742,11 +6040,11 @@
         <v>791</v>
       </c>
     </row>
-    <row r="72" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>51</v>
       </c>
-      <c r="D72" s="14">
+      <c r="D72" s="13">
         <v>42795</v>
       </c>
       <c r="E72" t="s">
@@ -6777,18 +6075,18 @@
       <c r="V72" t="s">
         <v>302</v>
       </c>
-      <c r="W72" s="22" t="s">
+      <c r="W72" s="21" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>52</v>
       </c>
       <c r="C73" t="s">
         <v>598</v>
       </c>
-      <c r="D73" s="14">
+      <c r="D73" s="13">
         <v>42804</v>
       </c>
       <c r="E73" t="s">
@@ -6835,15 +6133,15 @@
       <c r="V73" t="s">
         <v>303</v>
       </c>
-      <c r="W73" s="22" t="s">
+      <c r="W73" s="21" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>53</v>
       </c>
-      <c r="D74" s="14">
+      <c r="D74" s="13">
         <v>42807</v>
       </c>
       <c r="E74" t="s">
@@ -6890,15 +6188,15 @@
       <c r="V74" t="s">
         <v>304</v>
       </c>
-      <c r="W74" s="22" t="s">
+      <c r="W74" s="21" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>54</v>
       </c>
-      <c r="D75" s="14">
+      <c r="D75" s="13">
         <v>42831</v>
       </c>
       <c r="E75" t="s">
@@ -6945,15 +6243,15 @@
       <c r="V75" t="s">
         <v>305</v>
       </c>
-      <c r="W75" s="22" t="s">
+      <c r="W75" s="21" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="76" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:23" ht="32" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>55</v>
       </c>
-      <c r="D76" s="14">
+      <c r="D76" s="13">
         <v>42856</v>
       </c>
       <c r="E76" t="s">
@@ -6982,15 +6280,15 @@
       <c r="V76" t="s">
         <v>306</v>
       </c>
-      <c r="W76" s="22" t="s">
+      <c r="W76" s="21" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>56</v>
       </c>
-      <c r="D77" s="14">
+      <c r="D77" s="13">
         <v>42856</v>
       </c>
       <c r="E77" t="s">
@@ -7023,11 +6321,11 @@
         <v>791</v>
       </c>
     </row>
-    <row r="78" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>57</v>
       </c>
-      <c r="D78" s="14">
+      <c r="D78" s="13">
         <v>42767</v>
       </c>
       <c r="E78" t="s">
@@ -7056,15 +6354,15 @@
       <c r="V78" t="s">
         <v>308</v>
       </c>
-      <c r="W78" s="22" t="s">
+      <c r="W78" s="21" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>58</v>
       </c>
-      <c r="D79" s="14">
+      <c r="D79" s="13">
         <v>42826</v>
       </c>
       <c r="E79" t="s">
@@ -7093,15 +6391,15 @@
       <c r="V79" t="s">
         <v>309</v>
       </c>
-      <c r="W79" s="22" t="s">
+      <c r="W79" s="21" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>59</v>
       </c>
-      <c r="D80" s="14">
+      <c r="D80" s="13">
         <v>42826</v>
       </c>
       <c r="E80" t="s">
@@ -7130,15 +6428,15 @@
       <c r="V80" t="s">
         <v>310</v>
       </c>
-      <c r="W80" s="22" t="s">
+      <c r="W80" s="21" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="81" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>60</v>
       </c>
-      <c r="D81" s="14">
+      <c r="D81" s="13">
         <v>42826</v>
       </c>
       <c r="E81" t="s">
@@ -7167,15 +6465,15 @@
       <c r="V81" t="s">
         <v>311</v>
       </c>
-      <c r="W81" s="22" t="s">
+      <c r="W81" s="21" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="82" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:23" ht="32" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>61</v>
       </c>
-      <c r="D82" s="14">
+      <c r="D82" s="13">
         <v>42826</v>
       </c>
       <c r="E82" t="s">
@@ -7204,15 +6502,15 @@
       <c r="V82" t="s">
         <v>312</v>
       </c>
-      <c r="W82" s="22" t="s">
+      <c r="W82" s="21" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="83" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>62</v>
       </c>
-      <c r="D83" s="14">
+      <c r="D83" s="13">
         <v>42826</v>
       </c>
       <c r="E83" t="s">
@@ -7245,11 +6543,11 @@
         <v>791</v>
       </c>
     </row>
-    <row r="84" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>63</v>
       </c>
-      <c r="D84" s="14">
+      <c r="D84" s="13">
         <v>42826</v>
       </c>
       <c r="E84" t="s">
@@ -7278,15 +6576,15 @@
       <c r="V84" t="s">
         <v>314</v>
       </c>
-      <c r="W84" s="22" t="s">
+      <c r="W84" s="21" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="85" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>64</v>
       </c>
-      <c r="D85" s="14">
+      <c r="D85" s="13">
         <v>42826</v>
       </c>
       <c r="G85" t="s">
@@ -7312,15 +6610,15 @@
       <c r="V85" t="s">
         <v>315</v>
       </c>
-      <c r="W85" s="22" t="s">
+      <c r="W85" s="21" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="86" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>65</v>
       </c>
-      <c r="D86" s="14">
+      <c r="D86" s="13">
         <v>42826</v>
       </c>
       <c r="E86" t="s">
@@ -7349,15 +6647,15 @@
       <c r="V86" t="s">
         <v>316</v>
       </c>
-      <c r="W86" s="22" t="s">
+      <c r="W86" s="21" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="87" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>66</v>
       </c>
-      <c r="D87" s="14">
+      <c r="D87" s="13">
         <v>42826</v>
       </c>
       <c r="E87" t="s">
@@ -7390,18 +6688,18 @@
       <c r="V87" t="s">
         <v>317</v>
       </c>
-      <c r="W87" s="22" t="s">
+      <c r="W87" s="21" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="88" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:23" ht="32" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>67</v>
       </c>
       <c r="C88" t="s">
         <v>599</v>
       </c>
-      <c r="D88" s="14">
+      <c r="D88" s="13">
         <v>42879</v>
       </c>
       <c r="E88" t="s">
@@ -7445,15 +6743,15 @@
       <c r="V88" t="s">
         <v>318</v>
       </c>
-      <c r="W88" s="22" t="s">
+      <c r="W88" s="21" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="89" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>68</v>
       </c>
-      <c r="D89" s="14">
+      <c r="D89" s="13">
         <v>42826</v>
       </c>
       <c r="G89" t="s">
@@ -7487,11 +6785,11 @@
         <v>791</v>
       </c>
     </row>
-    <row r="90" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>69</v>
       </c>
-      <c r="D90" s="14">
+      <c r="D90" s="13">
         <v>42644</v>
       </c>
       <c r="E90" t="s">
@@ -7522,15 +6820,15 @@
       <c r="V90" t="s">
         <v>320</v>
       </c>
-      <c r="W90" s="22" t="s">
+      <c r="W90" s="21" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="91" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>70</v>
       </c>
-      <c r="D91" s="14">
+      <c r="D91" s="13">
         <v>42644</v>
       </c>
       <c r="E91" t="s">
@@ -7562,15 +6860,15 @@
       <c r="V91" t="s">
         <v>321</v>
       </c>
-      <c r="W91" s="22" t="s">
+      <c r="W91" s="21" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="92" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>71</v>
       </c>
-      <c r="D92" s="14">
+      <c r="D92" s="13">
         <v>42644</v>
       </c>
       <c r="G92" t="s">
@@ -7598,15 +6896,15 @@
       <c r="V92" t="s">
         <v>322</v>
       </c>
-      <c r="W92" s="22" t="s">
+      <c r="W92" s="21" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="93" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>72</v>
       </c>
-      <c r="D93" s="14">
+      <c r="D93" s="13">
         <v>42459</v>
       </c>
       <c r="E93" t="s">
@@ -7653,15 +6951,15 @@
       <c r="V93" t="s">
         <v>323</v>
       </c>
-      <c r="W93" s="22" t="s">
+      <c r="W93" s="21" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="94" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:23" ht="32" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>73</v>
       </c>
-      <c r="D94" s="14">
+      <c r="D94" s="13">
         <v>42826</v>
       </c>
       <c r="G94" t="s">
@@ -7692,15 +6990,15 @@
       <c r="V94" t="s">
         <v>324</v>
       </c>
-      <c r="W94" s="22" t="s">
+      <c r="W94" s="21" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="95" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>74</v>
       </c>
-      <c r="D95" s="14">
+      <c r="D95" s="13">
         <v>42826</v>
       </c>
       <c r="G95" t="s">
@@ -7734,11 +7032,11 @@
         <v>791</v>
       </c>
     </row>
-    <row r="96" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>75</v>
       </c>
-      <c r="D96" s="14">
+      <c r="D96" s="13">
         <v>42856</v>
       </c>
       <c r="G96" t="s">
@@ -7768,15 +7066,15 @@
       <c r="V96" t="s">
         <v>326</v>
       </c>
-      <c r="W96" s="22" t="s">
+      <c r="W96" s="21" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="97" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>76</v>
       </c>
-      <c r="D97" s="14">
+      <c r="D97" s="13">
         <v>42897</v>
       </c>
       <c r="E97" t="s">
@@ -7809,15 +7107,15 @@
       <c r="V97" t="s">
         <v>327</v>
       </c>
-      <c r="W97" s="22" t="s">
+      <c r="W97" s="21" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="98" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>77</v>
       </c>
-      <c r="D98" s="14">
+      <c r="D98" s="13">
         <v>42826</v>
       </c>
       <c r="E98" t="s">
@@ -7846,15 +7144,15 @@
       <c r="V98" t="s">
         <v>328</v>
       </c>
-      <c r="W98" s="22" t="s">
+      <c r="W98" s="21" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="99" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>78</v>
       </c>
-      <c r="D99" s="14">
+      <c r="D99" s="13">
         <v>42809</v>
       </c>
       <c r="E99" t="s">
@@ -7898,15 +7196,15 @@
       <c r="V99" t="s">
         <v>291</v>
       </c>
-      <c r="W99" s="22" t="s">
+      <c r="W99" s="21" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="100" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:23" ht="32" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>79</v>
       </c>
-      <c r="D100" s="14">
+      <c r="D100" s="13">
         <v>42856</v>
       </c>
       <c r="E100" t="s">
@@ -7935,15 +7233,15 @@
       <c r="V100" t="s">
         <v>329</v>
       </c>
-      <c r="W100" s="22" t="s">
+      <c r="W100" s="21" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="101" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>80</v>
       </c>
-      <c r="D101" s="14">
+      <c r="D101" s="13">
         <v>42856</v>
       </c>
       <c r="E101" t="s">
@@ -7976,11 +7274,11 @@
         <v>791</v>
       </c>
     </row>
-    <row r="102" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>81</v>
       </c>
-      <c r="D102" s="14">
+      <c r="D102" s="13">
         <v>42887</v>
       </c>
       <c r="E102" t="s">
@@ -8009,15 +7307,15 @@
       <c r="V102" t="s">
         <v>331</v>
       </c>
-      <c r="W102" s="22" t="s">
+      <c r="W102" s="21" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="103" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>82</v>
       </c>
-      <c r="D103" s="14">
+      <c r="D103" s="13">
         <v>42795</v>
       </c>
       <c r="G103" t="s">
@@ -8049,15 +7347,15 @@
       <c r="V103" t="s">
         <v>332</v>
       </c>
-      <c r="W103" s="22" t="s">
+      <c r="W103" s="21" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="104" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="14">
+      <c r="D104" s="13">
         <v>42887</v>
       </c>
       <c r="E104" t="s">
@@ -8090,15 +7388,15 @@
       <c r="V104" t="s">
         <v>333</v>
       </c>
-      <c r="W104" s="22" t="s">
+      <c r="W104" s="21" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="105" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>84</v>
       </c>
-      <c r="D105" s="14">
+      <c r="D105" s="13">
         <v>42887</v>
       </c>
       <c r="E105" t="s">
@@ -8134,15 +7432,15 @@
       <c r="V105" t="s">
         <v>334</v>
       </c>
-      <c r="W105" s="22" t="s">
+      <c r="W105" s="21" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="106" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:23" ht="32" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>85</v>
       </c>
-      <c r="D106" s="14">
+      <c r="D106" s="13">
         <v>42887</v>
       </c>
       <c r="E106" t="s">
@@ -8178,15 +7476,15 @@
       <c r="V106" t="s">
         <v>335</v>
       </c>
-      <c r="W106" s="22" t="s">
+      <c r="W106" s="21" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="107" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>86</v>
       </c>
-      <c r="D107" s="14">
+      <c r="D107" s="13">
         <v>42887</v>
       </c>
       <c r="E107" t="s">
@@ -8219,14 +7517,14 @@
         <v>791</v>
       </c>
     </row>
-    <row r="108" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>87</v>
       </c>
       <c r="C108" t="s">
         <v>601</v>
       </c>
-      <c r="D108" s="14">
+      <c r="D108" s="13">
         <v>42877</v>
       </c>
       <c r="E108" t="s">
@@ -8272,15 +7570,15 @@
       <c r="V108" t="s">
         <v>337</v>
       </c>
-      <c r="W108" s="22" t="s">
+      <c r="W108" s="21" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="109" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>88</v>
       </c>
-      <c r="D109" s="14">
+      <c r="D109" s="13">
         <v>42913</v>
       </c>
       <c r="E109" t="s">
@@ -8309,15 +7607,15 @@
       <c r="V109" t="s">
         <v>338</v>
       </c>
-      <c r="W109" s="22" t="s">
+      <c r="W109" s="21" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="110" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>89</v>
       </c>
-      <c r="D110" s="14">
+      <c r="D110" s="13">
         <v>42887</v>
       </c>
       <c r="E110" t="s">
@@ -8346,15 +7644,15 @@
       <c r="V110" t="s">
         <v>339</v>
       </c>
-      <c r="W110" s="22" t="s">
+      <c r="W110" s="21" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="111" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>90</v>
       </c>
-      <c r="D111" s="14">
+      <c r="D111" s="13">
         <v>42826</v>
       </c>
       <c r="E111" t="s">
@@ -8387,15 +7685,15 @@
       <c r="V111" t="s">
         <v>340</v>
       </c>
-      <c r="W111" s="22" t="s">
+      <c r="W111" s="21" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="112" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:23" ht="32" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>91</v>
       </c>
-      <c r="D112" s="14">
+      <c r="D112" s="13">
         <v>42887</v>
       </c>
       <c r="E112" t="s">
@@ -8428,15 +7726,15 @@
       <c r="V112" t="s">
         <v>341</v>
       </c>
-      <c r="W112" s="22" t="s">
+      <c r="W112" s="21" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="113" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>92</v>
       </c>
-      <c r="D113" s="14">
+      <c r="D113" s="13">
         <v>42934</v>
       </c>
       <c r="E113" t="s">
@@ -8472,11 +7770,11 @@
         <v>791</v>
       </c>
     </row>
-    <row r="114" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>93</v>
       </c>
-      <c r="D114" s="14">
+      <c r="D114" s="13">
         <v>42864</v>
       </c>
       <c r="E114" t="s">
@@ -8523,15 +7821,15 @@
       <c r="V114" t="s">
         <v>343</v>
       </c>
-      <c r="W114" s="22" t="s">
+      <c r="W114" s="21" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="115" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>94</v>
       </c>
-      <c r="D115" s="14">
+      <c r="D115" s="13">
         <v>42826</v>
       </c>
       <c r="G115" t="s">
@@ -8555,15 +7853,15 @@
       <c r="V115" t="s">
         <v>344</v>
       </c>
-      <c r="W115" s="22" t="s">
+      <c r="W115" s="21" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="116" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>95</v>
       </c>
-      <c r="D116" s="14">
+      <c r="D116" s="13">
         <v>42826</v>
       </c>
       <c r="G116" t="s">
@@ -8596,15 +7894,15 @@
       <c r="V116" t="s">
         <v>345</v>
       </c>
-      <c r="W116" s="22" t="s">
+      <c r="W116" s="21" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="117" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>96</v>
       </c>
-      <c r="D117" s="14">
+      <c r="D117" s="13">
         <v>42944</v>
       </c>
       <c r="E117" t="s">
@@ -8633,15 +7931,15 @@
       <c r="V117" t="s">
         <v>346</v>
       </c>
-      <c r="W117" s="22" t="s">
+      <c r="W117" s="21" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="118" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:23" ht="32" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>97</v>
       </c>
-      <c r="D118" s="14">
+      <c r="D118" s="13">
         <v>42932</v>
       </c>
       <c r="E118" t="s">
@@ -8688,18 +7986,18 @@
       <c r="V118" t="s">
         <v>347</v>
       </c>
-      <c r="W118" s="22" t="s">
+      <c r="W118" s="21" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="119" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>98</v>
       </c>
       <c r="C119" t="s">
         <v>629</v>
       </c>
-      <c r="D119" s="14">
+      <c r="D119" s="13">
         <v>42929</v>
       </c>
       <c r="E119" t="s">
@@ -8747,14 +8045,14 @@
         <v>791</v>
       </c>
     </row>
-    <row r="120" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>99</v>
       </c>
       <c r="C120" t="s">
         <v>562</v>
       </c>
-      <c r="D120" s="14">
+      <c r="D120" s="13">
         <v>41866</v>
       </c>
       <c r="E120" t="s">
@@ -8791,15 +8089,15 @@
       <c r="V120" t="s">
         <v>349</v>
       </c>
-      <c r="W120" s="22" t="s">
+      <c r="W120" s="21" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="121" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>100</v>
       </c>
-      <c r="D121" s="14">
+      <c r="D121" s="13">
         <v>42956</v>
       </c>
       <c r="E121" t="s">
@@ -8828,15 +8126,15 @@
       <c r="V121" t="s">
         <v>350</v>
       </c>
-      <c r="W121" s="22" t="s">
+      <c r="W121" s="21" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="122" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>101</v>
       </c>
-      <c r="D122" s="14">
+      <c r="D122" s="13">
         <v>42940</v>
       </c>
       <c r="E122" t="s">
@@ -8865,15 +8163,15 @@
       <c r="V122" t="s">
         <v>351</v>
       </c>
-      <c r="W122" s="22" t="s">
+      <c r="W122" s="21" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="123" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>102</v>
       </c>
-      <c r="D123" s="14">
+      <c r="D123" s="13">
         <v>42977</v>
       </c>
       <c r="E123" t="s">
@@ -8905,15 +8203,15 @@
       <c r="V123" t="s">
         <v>352</v>
       </c>
-      <c r="W123" s="22" t="s">
+      <c r="W123" s="21" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="124" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>103</v>
       </c>
-      <c r="D124" s="14">
+      <c r="D124" s="13">
         <v>42956</v>
       </c>
       <c r="E124" t="s">
@@ -8923,14 +8221,14 @@
         <v>426</v>
       </c>
       <c r="I124" s="6"/>
-      <c r="J124" s="21"/>
+      <c r="J124" s="20"/>
       <c r="L124" s="10">
         <v>24</v>
       </c>
       <c r="M124" t="s">
         <v>186</v>
       </c>
-      <c r="N124" s="20" t="s">
+      <c r="N124" s="19" t="s">
         <v>446</v>
       </c>
       <c r="Q124" s="11" t="s">
@@ -8942,15 +8240,15 @@
       <c r="V124" t="s">
         <v>353</v>
       </c>
-      <c r="W124" s="22" t="s">
+      <c r="W124" s="21" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="125" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>104</v>
       </c>
-      <c r="D125" s="14">
+      <c r="D125" s="13">
         <v>42887</v>
       </c>
       <c r="G125" t="s">
@@ -8976,15 +8274,15 @@
       <c r="V125" t="s">
         <v>354</v>
       </c>
-      <c r="W125" s="22" t="s">
+      <c r="W125" s="21" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="126" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:23" ht="32" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>105</v>
       </c>
-      <c r="D126" s="14">
+      <c r="D126" s="13">
         <v>42958</v>
       </c>
       <c r="E126" t="s">
@@ -9017,15 +8315,15 @@
       <c r="V126" t="s">
         <v>355</v>
       </c>
-      <c r="W126" s="22" t="s">
+      <c r="W126" s="21" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="127" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>106</v>
       </c>
-      <c r="D127" s="14">
+      <c r="D127" s="13">
         <v>42958</v>
       </c>
       <c r="E127" t="s">
@@ -9058,11 +8356,11 @@
         <v>791</v>
       </c>
     </row>
-    <row r="128" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>107</v>
       </c>
-      <c r="D128" s="14">
+      <c r="D128" s="13">
         <v>42644</v>
       </c>
       <c r="G128" t="s">
@@ -9088,15 +8386,15 @@
       <c r="V128" t="s">
         <v>357</v>
       </c>
-      <c r="W128" s="22" t="s">
+      <c r="W128" s="21" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="129" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>108</v>
       </c>
-      <c r="D129" s="14">
+      <c r="D129" s="13">
         <v>42644</v>
       </c>
       <c r="G129" t="s">
@@ -9126,15 +8424,15 @@
       <c r="V129" t="s">
         <v>358</v>
       </c>
-      <c r="W129" s="22" t="s">
+      <c r="W129" s="21" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="130" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>109</v>
       </c>
-      <c r="D130" s="14">
+      <c r="D130" s="13">
         <v>42644</v>
       </c>
       <c r="E130" t="s">
@@ -9163,15 +8461,15 @@
       <c r="V130" t="s">
         <v>359</v>
       </c>
-      <c r="W130" s="22" t="s">
+      <c r="W130" s="21" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="131" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>110</v>
       </c>
-      <c r="D131" s="14">
+      <c r="D131" s="13">
         <v>42917</v>
       </c>
       <c r="E131" t="s">
@@ -9200,15 +8498,15 @@
       <c r="V131" t="s">
         <v>360</v>
       </c>
-      <c r="W131" s="22" t="s">
+      <c r="W131" s="21" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="132" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>111</v>
       </c>
-      <c r="D132" s="14">
+      <c r="D132" s="13">
         <v>42917</v>
       </c>
       <c r="E132" t="s">
@@ -9237,15 +8535,15 @@
       <c r="V132" t="s">
         <v>361</v>
       </c>
-      <c r="W132" s="22" t="s">
+      <c r="W132" s="21" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="133" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>112</v>
       </c>
-      <c r="D133" s="14">
+      <c r="D133" s="13">
         <v>42887</v>
       </c>
       <c r="E133" t="s">
@@ -9272,15 +8570,15 @@
       <c r="V133" t="s">
         <v>362</v>
       </c>
-      <c r="W133" s="22" t="s">
+      <c r="W133" s="21" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="134" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:23" ht="32" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>113</v>
       </c>
-      <c r="D134" s="14">
+      <c r="D134" s="13">
         <v>42948</v>
       </c>
       <c r="E134" t="s">
@@ -9309,18 +8607,18 @@
       <c r="V134" t="s">
         <v>363</v>
       </c>
-      <c r="W134" s="22" t="s">
+      <c r="W134" s="21" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="135" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>114</v>
       </c>
       <c r="C135" t="s">
         <v>510</v>
       </c>
-      <c r="D135" s="14">
+      <c r="D135" s="13">
         <v>42983</v>
       </c>
       <c r="E135" t="s">
@@ -9371,14 +8669,14 @@
         <v>791</v>
       </c>
     </row>
-    <row r="136" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>115</v>
       </c>
       <c r="C136" t="s">
         <v>586</v>
       </c>
-      <c r="D136" s="14">
+      <c r="D136" s="13">
         <v>42644</v>
       </c>
       <c r="E136" t="s">
@@ -9416,15 +8714,15 @@
       <c r="V136" t="s">
         <v>365</v>
       </c>
-      <c r="W136" s="22" t="s">
+      <c r="W136" s="21" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="137" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>116</v>
       </c>
-      <c r="D137" s="14">
+      <c r="D137" s="13">
         <v>42826</v>
       </c>
       <c r="G137" t="s">
@@ -9453,15 +8751,15 @@
       <c r="V137" t="s">
         <v>345</v>
       </c>
-      <c r="W137" s="22" t="s">
+      <c r="W137" s="21" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="138" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>117</v>
       </c>
-      <c r="D138" s="14">
+      <c r="D138" s="13">
         <v>42826</v>
       </c>
       <c r="G138" t="s">
@@ -9485,15 +8783,15 @@
       <c r="V138" t="s">
         <v>366</v>
       </c>
-      <c r="W138" s="22" t="s">
+      <c r="W138" s="21" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="139" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>118</v>
       </c>
-      <c r="D139" s="14">
+      <c r="D139" s="13">
         <v>42826</v>
       </c>
       <c r="G139" t="s">
@@ -9523,18 +8821,18 @@
       <c r="V139" t="s">
         <v>367</v>
       </c>
-      <c r="W139" s="22" t="s">
+      <c r="W139" s="21" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="140" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>119</v>
       </c>
       <c r="C140" t="s">
         <v>502</v>
       </c>
-      <c r="D140" s="14">
+      <c r="D140" s="13">
         <v>42923</v>
       </c>
       <c r="E140" t="s">
@@ -9578,15 +8876,15 @@
       <c r="V140" t="s">
         <v>368</v>
       </c>
-      <c r="W140" s="22" t="s">
+      <c r="W140" s="21" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="141" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>120</v>
       </c>
-      <c r="D141" s="14">
+      <c r="D141" s="13">
         <v>42826</v>
       </c>
       <c r="E141" t="s">
@@ -9619,16 +8917,16 @@
       <c r="V141" t="s">
         <v>369</v>
       </c>
-      <c r="W141" s="22" t="s">
+      <c r="W141" s="21" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="142" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:23" ht="32" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>121</v>
       </c>
       <c r="C142" s="13"/>
-      <c r="D142" s="14">
+      <c r="D142" s="13">
         <v>42473</v>
       </c>
       <c r="E142" t="s">
@@ -9657,15 +8955,15 @@
       <c r="V142" t="s">
         <v>370</v>
       </c>
-      <c r="W142" s="22" t="s">
+      <c r="W142" s="21" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="143" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>122</v>
       </c>
-      <c r="D143" s="14">
+      <c r="D143" s="13">
         <v>42826</v>
       </c>
       <c r="E143" t="s">
@@ -9698,11 +8996,11 @@
         <v>791</v>
       </c>
     </row>
-    <row r="144" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>123</v>
       </c>
-      <c r="D144" s="14">
+      <c r="D144" s="13">
         <v>42655</v>
       </c>
       <c r="E144" t="s">
@@ -9745,15 +9043,15 @@
       <c r="V144" t="s">
         <v>372</v>
       </c>
-      <c r="W144" s="22" t="s">
+      <c r="W144" s="21" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="145" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>124</v>
       </c>
-      <c r="D145" s="14">
+      <c r="D145" s="13">
         <v>42418</v>
       </c>
       <c r="E145" t="s">
@@ -9782,15 +9080,15 @@
       <c r="V145" t="s">
         <v>373</v>
       </c>
-      <c r="W145" s="22" t="s">
+      <c r="W145" s="21" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="146" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>125</v>
       </c>
-      <c r="D146" s="14">
+      <c r="D146" s="13">
         <v>42514</v>
       </c>
       <c r="E146" t="s">
@@ -9819,18 +9117,18 @@
       <c r="V146" t="s">
         <v>374</v>
       </c>
-      <c r="W146" s="22" t="s">
+      <c r="W146" s="21" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="147" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>126</v>
       </c>
-      <c r="C147" s="15" t="s">
+      <c r="C147" s="14" t="s">
         <v>567</v>
       </c>
-      <c r="D147" s="14">
+      <c r="D147" s="13">
         <v>42907</v>
       </c>
       <c r="E147" t="s">
@@ -9848,7 +9146,7 @@
       <c r="J147" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K147" s="16">
+      <c r="K147" s="15">
         <v>543.79999999999995</v>
       </c>
       <c r="L147" s="10">
@@ -9882,15 +9180,15 @@
       <c r="V147" t="s">
         <v>375</v>
       </c>
-      <c r="W147" s="22" t="s">
+      <c r="W147" s="21" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="148" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>127</v>
       </c>
-      <c r="D148" s="14">
+      <c r="D148" s="13">
         <v>42826</v>
       </c>
       <c r="E148" t="s">
@@ -9916,15 +9214,15 @@
       <c r="R148" s="11"/>
       <c r="S148" s="11"/>
       <c r="T148" s="11"/>
-      <c r="W148" s="22" t="s">
+      <c r="W148" s="21" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="149" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>128</v>
       </c>
-      <c r="D149" s="14">
+      <c r="D149" s="13">
         <v>42569</v>
       </c>
       <c r="E149" t="s">
@@ -9953,15 +9251,15 @@
       <c r="V149" t="s">
         <v>376</v>
       </c>
-      <c r="W149" s="22" t="s">
+      <c r="W149" s="21" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="150" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:23" ht="32" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>129</v>
       </c>
-      <c r="D150" s="14">
+      <c r="D150" s="13">
         <v>42905</v>
       </c>
       <c r="G150" t="s">
@@ -9999,15 +9297,15 @@
       <c r="V150" t="s">
         <v>291</v>
       </c>
-      <c r="W150" s="22" t="s">
+      <c r="W150" s="21" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="151" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>130</v>
       </c>
-      <c r="D151" s="14">
+      <c r="D151" s="13">
         <v>42887</v>
       </c>
       <c r="G151" t="s">
@@ -10041,11 +9339,11 @@
         <v>791</v>
       </c>
     </row>
-    <row r="152" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>131</v>
       </c>
-      <c r="D152" s="14">
+      <c r="D152" s="13">
         <v>42887</v>
       </c>
       <c r="E152" t="s">
@@ -10074,15 +9372,15 @@
       <c r="V152" t="s">
         <v>378</v>
       </c>
-      <c r="W152" s="22" t="s">
+      <c r="W152" s="21" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="153" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>132</v>
       </c>
-      <c r="D153" s="14">
+      <c r="D153" s="13">
         <v>42979</v>
       </c>
       <c r="E153" t="s">
@@ -10111,15 +9409,15 @@
       <c r="V153" t="s">
         <v>379</v>
       </c>
-      <c r="W153" s="22" t="s">
+      <c r="W153" s="21" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="154" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>133</v>
       </c>
-      <c r="D154" s="14">
+      <c r="D154" s="13">
         <v>42887</v>
       </c>
       <c r="E154" t="s">
@@ -10148,15 +9446,15 @@
       <c r="V154" t="s">
         <v>380</v>
       </c>
-      <c r="W154" s="22" t="s">
+      <c r="W154" s="21" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="155" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>134</v>
       </c>
-      <c r="D155" s="14">
+      <c r="D155" s="13">
         <v>42975</v>
       </c>
       <c r="E155" t="s">
@@ -10195,18 +9493,18 @@
       <c r="V155" t="s">
         <v>381</v>
       </c>
-      <c r="W155" s="22" t="s">
+      <c r="W155" s="21" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="156" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>135</v>
       </c>
       <c r="C156" t="s">
         <v>559</v>
       </c>
-      <c r="D156" s="14">
+      <c r="D156" s="13">
         <v>42978</v>
       </c>
       <c r="E156" t="s">
@@ -10235,15 +9533,15 @@
       <c r="V156" t="s">
         <v>382</v>
       </c>
-      <c r="W156" s="22" t="s">
+      <c r="W156" s="21" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="157" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>136</v>
       </c>
-      <c r="D157" s="14">
+      <c r="D157" s="13">
         <v>42979</v>
       </c>
       <c r="E157" t="s">
@@ -10272,15 +9570,15 @@
       <c r="V157" t="s">
         <v>383</v>
       </c>
-      <c r="W157" s="22" t="s">
+      <c r="W157" s="21" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="158" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:23" ht="32" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>137</v>
       </c>
-      <c r="D158" s="14">
+      <c r="D158" s="13">
         <v>42887</v>
       </c>
       <c r="G158" t="s">
@@ -10306,15 +9604,15 @@
       <c r="V158" t="s">
         <v>384</v>
       </c>
-      <c r="W158" s="22" t="s">
+      <c r="W158" s="21" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="159" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>138</v>
       </c>
-      <c r="D159" s="14">
+      <c r="D159" s="13">
         <v>42979</v>
       </c>
       <c r="E159" t="s">
@@ -10347,14 +9645,14 @@
         <v>791</v>
       </c>
     </row>
-    <row r="160" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>139</v>
       </c>
       <c r="C160" t="s">
         <v>588</v>
       </c>
-      <c r="D160" s="14">
+      <c r="D160" s="13">
         <v>42990</v>
       </c>
       <c r="E160" t="s">
@@ -10398,18 +9696,18 @@
       <c r="V160" t="s">
         <v>386</v>
       </c>
-      <c r="W160" s="22" t="s">
+      <c r="W160" s="21" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="161" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>140</v>
       </c>
       <c r="C161" t="s">
         <v>483</v>
       </c>
-      <c r="D161" s="14">
+      <c r="D161" s="13">
         <v>43011</v>
       </c>
       <c r="E161" t="s">
@@ -10456,16 +9754,16 @@
       <c r="V161" t="s">
         <v>387</v>
       </c>
-      <c r="W161" s="22" t="s">
+      <c r="W161" s="21" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="162" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>141</v>
       </c>
       <c r="C162" s="13"/>
-      <c r="D162" s="14">
+      <c r="D162" s="13">
         <v>43011</v>
       </c>
       <c r="E162" t="s">
@@ -10514,15 +9812,15 @@
       <c r="V162" t="s">
         <v>388</v>
       </c>
-      <c r="W162" s="22" t="s">
+      <c r="W162" s="21" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="163" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>142</v>
       </c>
-      <c r="D163" s="14">
+      <c r="D163" s="13">
         <v>42955</v>
       </c>
       <c r="E163" t="s">
@@ -10569,15 +9867,15 @@
       <c r="V163" t="s">
         <v>389</v>
       </c>
-      <c r="W163" s="22" t="s">
+      <c r="W163" s="21" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="164" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>143</v>
       </c>
-      <c r="D164" s="14">
+      <c r="D164" s="13">
         <v>43009</v>
       </c>
       <c r="E164" t="s">
@@ -10616,18 +9914,18 @@
       <c r="V164" t="s">
         <v>390</v>
       </c>
-      <c r="W164" s="22" t="s">
+      <c r="W164" s="21" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="165" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>144</v>
       </c>
-      <c r="C165" s="15" t="s">
+      <c r="C165" s="14" t="s">
         <v>555</v>
       </c>
-      <c r="D165" s="14">
+      <c r="D165" s="13">
         <v>43006</v>
       </c>
       <c r="E165" t="s">
@@ -10645,7 +9943,7 @@
       <c r="J165" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K165" s="16">
+      <c r="K165" s="15">
         <v>1490</v>
       </c>
       <c r="L165" s="10">
@@ -10677,15 +9975,15 @@
       <c r="V165" t="s">
         <v>391</v>
       </c>
-      <c r="W165" s="22" t="s">
+      <c r="W165" s="21" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="166" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>145</v>
       </c>
-      <c r="D166" s="14">
+      <c r="D166" s="13">
         <v>43013</v>
       </c>
       <c r="E166" t="s">
@@ -10718,15 +10016,15 @@
       <c r="V166" t="s">
         <v>392</v>
       </c>
-      <c r="W166" s="22" t="s">
+      <c r="W166" s="21" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="167" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:23" ht="32" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>146</v>
       </c>
-      <c r="D167" s="14">
+      <c r="D167" s="13">
         <v>43022</v>
       </c>
       <c r="E167" t="s">
@@ -10759,18 +10057,18 @@
       <c r="V167" t="s">
         <v>393</v>
       </c>
-      <c r="W167" s="22" t="s">
+      <c r="W167" s="21" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="168" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>147</v>
       </c>
       <c r="C168" t="s">
         <v>556</v>
       </c>
-      <c r="D168" s="14">
+      <c r="D168" s="13">
         <v>42979</v>
       </c>
       <c r="E168" t="s">
@@ -10818,14 +10116,14 @@
         <v>791</v>
       </c>
     </row>
-    <row r="169" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>149</v>
       </c>
       <c r="C169" t="s">
         <v>519</v>
       </c>
-      <c r="D169" s="14">
+      <c r="D169" s="13">
         <v>43040</v>
       </c>
       <c r="E169" t="s">
@@ -10869,15 +10167,15 @@
       <c r="V169" t="s">
         <v>396</v>
       </c>
-      <c r="W169" s="22" t="s">
+      <c r="W169" s="21" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="170" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>150</v>
       </c>
-      <c r="D170" s="14">
+      <c r="D170" s="13">
         <v>42979</v>
       </c>
       <c r="E170" t="s">
@@ -10908,15 +10206,15 @@
       <c r="V170" t="s">
         <v>397</v>
       </c>
-      <c r="W170" s="22" t="s">
+      <c r="W170" s="21" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="171" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>151</v>
       </c>
-      <c r="D171" s="14">
+      <c r="D171" s="13">
         <v>42979</v>
       </c>
       <c r="E171" t="s">
@@ -10945,15 +10243,15 @@
       <c r="V171" t="s">
         <v>398</v>
       </c>
-      <c r="W171" s="22" t="s">
+      <c r="W171" s="21" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="172" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>152</v>
       </c>
-      <c r="D172" s="14">
+      <c r="D172" s="13">
         <v>42985</v>
       </c>
       <c r="E172" t="s">
@@ -10999,18 +10297,18 @@
       <c r="V172" t="s">
         <v>399</v>
       </c>
-      <c r="W172" s="22" t="s">
+      <c r="W172" s="21" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="173" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
         <v>153</v>
       </c>
       <c r="C173">
         <v>12</v>
       </c>
-      <c r="D173" s="14">
+      <c r="D173" s="13">
         <v>43031</v>
       </c>
       <c r="E173" t="s">
@@ -11052,15 +10350,15 @@
       <c r="V173" t="s">
         <v>400</v>
       </c>
-      <c r="W173" s="22" t="s">
+      <c r="W173" s="21" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="174" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>154</v>
       </c>
-      <c r="D174" s="14">
+      <c r="D174" s="13">
         <v>42986</v>
       </c>
       <c r="E174" t="s">
@@ -11096,15 +10394,15 @@
       <c r="V174" t="s">
         <v>401</v>
       </c>
-      <c r="W174" s="22" t="s">
+      <c r="W174" s="21" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="175" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:23" ht="32" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>155</v>
       </c>
-      <c r="D175" s="14">
+      <c r="D175" s="13">
         <v>43040</v>
       </c>
       <c r="E175" t="s">
@@ -11133,15 +10431,15 @@
       <c r="V175" t="s">
         <v>402</v>
       </c>
-      <c r="W175" s="22" t="s">
+      <c r="W175" s="21" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="176" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>156</v>
       </c>
-      <c r="D176" s="14">
+      <c r="D176" s="13">
         <v>43040</v>
       </c>
       <c r="E176" t="s">
@@ -11174,11 +10472,11 @@
         <v>791</v>
       </c>
     </row>
-    <row r="177" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>157</v>
       </c>
-      <c r="D177" s="14">
+      <c r="D177" s="13">
         <v>43040</v>
       </c>
       <c r="E177" t="s">
@@ -11207,15 +10505,15 @@
       <c r="V177" t="s">
         <v>404</v>
       </c>
-      <c r="W177" s="22" t="s">
+      <c r="W177" s="21" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="178" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>158</v>
       </c>
-      <c r="D178" s="14">
+      <c r="D178" s="13">
         <v>43033</v>
       </c>
       <c r="E178" t="s">
@@ -11256,15 +10554,15 @@
       <c r="V178" t="s">
         <v>405</v>
       </c>
-      <c r="W178" s="22" t="s">
+      <c r="W178" s="21" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="179" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
         <v>159</v>
       </c>
-      <c r="D179" s="14">
+      <c r="D179" s="13">
         <v>43040</v>
       </c>
       <c r="E179" t="s">
@@ -11293,15 +10591,15 @@
       <c r="V179" t="s">
         <v>406</v>
       </c>
-      <c r="W179" s="22" t="s">
+      <c r="W179" s="21" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="180" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>160</v>
       </c>
-      <c r="D180" s="14">
+      <c r="D180" s="13">
         <v>43040</v>
       </c>
       <c r="E180" t="s">
@@ -11340,18 +10638,18 @@
       <c r="V180" t="s">
         <v>407</v>
       </c>
-      <c r="W180" s="22" t="s">
+      <c r="W180" s="21" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="181" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>161</v>
       </c>
       <c r="C181" t="s">
         <v>603</v>
       </c>
-      <c r="D181" s="14">
+      <c r="D181" s="13">
         <v>42825</v>
       </c>
       <c r="E181" t="s">
@@ -11392,18 +10690,18 @@
       <c r="V181" t="s">
         <v>408</v>
       </c>
-      <c r="W181" s="22" t="s">
+      <c r="W181" s="21" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="182" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>162</v>
       </c>
       <c r="C182" t="s">
         <v>604</v>
       </c>
-      <c r="D182" s="14">
+      <c r="D182" s="13">
         <v>42947</v>
       </c>
       <c r="G182" t="s">
@@ -11435,15 +10733,15 @@
       <c r="V182" t="s">
         <v>408</v>
       </c>
-      <c r="W182" s="22" t="s">
+      <c r="W182" s="21" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="183" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:23" ht="32" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
         <v>163</v>
       </c>
-      <c r="D183" s="14">
+      <c r="D183" s="13">
         <v>42961</v>
       </c>
       <c r="E183" t="s">
@@ -11487,18 +10785,18 @@
       <c r="V183" t="s">
         <v>291</v>
       </c>
-      <c r="W183" s="22" t="s">
+      <c r="W183" s="21" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="184" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>164</v>
       </c>
       <c r="C184" t="s">
         <v>489</v>
       </c>
-      <c r="D184" s="14">
+      <c r="D184" s="13">
         <v>43039</v>
       </c>
       <c r="E184" t="s">
@@ -11547,14 +10845,14 @@
         <v>791</v>
       </c>
     </row>
-    <row r="185" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>165</v>
       </c>
       <c r="C185" t="s">
         <v>605</v>
       </c>
-      <c r="D185" s="14">
+      <c r="D185" s="13">
         <v>43025</v>
       </c>
       <c r="E185" t="s">
@@ -11601,18 +10899,18 @@
       <c r="V185" t="s">
         <v>410</v>
       </c>
-      <c r="W185" s="22" t="s">
+      <c r="W185" s="21" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="186" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
         <v>166</v>
       </c>
       <c r="C186" t="s">
         <v>491</v>
       </c>
-      <c r="D186" s="14">
+      <c r="D186" s="13">
         <v>43026</v>
       </c>
       <c r="E186" t="s">
@@ -11659,18 +10957,18 @@
       <c r="V186" t="s">
         <v>411</v>
       </c>
-      <c r="W186" s="22" t="s">
+      <c r="W186" s="21" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="187" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>167</v>
       </c>
       <c r="C187" t="s">
         <v>557</v>
       </c>
-      <c r="D187" s="14">
+      <c r="D187" s="13">
         <v>42991</v>
       </c>
       <c r="E187" t="s">
@@ -11714,15 +11012,15 @@
       <c r="V187" t="s">
         <v>412</v>
       </c>
-      <c r="W187" s="22" t="s">
+      <c r="W187" s="21" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="188" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
         <v>168</v>
       </c>
-      <c r="D188" s="14">
+      <c r="D188" s="13">
         <v>43080</v>
       </c>
       <c r="E188" t="s">
@@ -11768,18 +11066,18 @@
       <c r="V188" t="s">
         <v>413</v>
       </c>
-      <c r="W188" s="22" t="s">
+      <c r="W188" s="21" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="189" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
         <v>169</v>
       </c>
       <c r="C189" t="s">
         <v>495</v>
       </c>
-      <c r="D189" s="14">
+      <c r="D189" s="13">
         <v>42970</v>
       </c>
       <c r="E189" t="s">
@@ -11826,15 +11124,15 @@
       <c r="V189" t="s">
         <v>414</v>
       </c>
-      <c r="W189" s="22" t="s">
+      <c r="W189" s="21" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="190" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>170</v>
       </c>
-      <c r="D190" s="14">
+      <c r="D190" s="13">
         <v>43070</v>
       </c>
       <c r="E190" t="s">
@@ -11878,18 +11176,18 @@
       <c r="V190" t="s">
         <v>415</v>
       </c>
-      <c r="W190" s="22" t="s">
+      <c r="W190" s="21" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="191" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:23" ht="32" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
         <v>171</v>
       </c>
-      <c r="C191" s="15" t="s">
+      <c r="C191" s="14" t="s">
         <v>558</v>
       </c>
-      <c r="D191" s="14">
+      <c r="D191" s="13">
         <v>43075</v>
       </c>
       <c r="E191" t="s">
@@ -11910,7 +11208,7 @@
       <c r="J191" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K191" s="16">
+      <c r="K191" s="15">
         <v>126.2</v>
       </c>
       <c r="L191" s="10">
@@ -11936,18 +11234,18 @@
       <c r="V191" t="s">
         <v>416</v>
       </c>
-      <c r="W191" s="22" t="s">
+      <c r="W191" s="21" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="192" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
         <v>172</v>
       </c>
       <c r="C192" t="s">
         <v>608</v>
       </c>
-      <c r="D192" s="14">
+      <c r="D192" s="13">
         <v>42997</v>
       </c>
       <c r="E192" t="s">
@@ -11998,14 +11296,14 @@
         <v>791</v>
       </c>
     </row>
-    <row r="193" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>173</v>
       </c>
       <c r="C193" t="s">
         <v>589</v>
       </c>
-      <c r="D193" s="14">
+      <c r="D193" s="13">
         <v>43031</v>
       </c>
       <c r="E193" t="s">
@@ -12050,18 +11348,18 @@
       <c r="V193" t="s">
         <v>418</v>
       </c>
-      <c r="W193" s="22" t="s">
+      <c r="W193" s="21" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="194" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>174</v>
       </c>
       <c r="C194" t="s">
         <v>561</v>
       </c>
-      <c r="D194" s="14">
+      <c r="D194" s="13">
         <v>43060</v>
       </c>
       <c r="E194" t="s">
@@ -12103,18 +11401,18 @@
       <c r="V194" t="s">
         <v>419</v>
       </c>
-      <c r="W194" s="22" t="s">
+      <c r="W194" s="21" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="195" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>175</v>
       </c>
-      <c r="C195" s="15" t="s">
+      <c r="C195" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="D195" s="14">
+      <c r="D195" s="13">
         <v>43080</v>
       </c>
       <c r="E195" t="s">
@@ -12135,7 +11433,7 @@
       <c r="J195" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K195" s="16">
+      <c r="K195" s="15">
         <v>562</v>
       </c>
       <c r="L195" s="10">
@@ -12169,15 +11467,15 @@
       <c r="V195" t="s">
         <v>420</v>
       </c>
-      <c r="W195" s="22" t="s">
+      <c r="W195" s="21" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="196" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>176</v>
       </c>
-      <c r="D196" s="14">
+      <c r="D196" s="13">
         <v>43117</v>
       </c>
       <c r="E196" t="s">
@@ -12217,15 +11515,15 @@
       <c r="V196" t="s">
         <v>421</v>
       </c>
-      <c r="W196" s="22" t="s">
+      <c r="W196" s="21" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="197" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>177</v>
       </c>
-      <c r="D197" s="14">
+      <c r="D197" s="13">
         <v>43070</v>
       </c>
       <c r="E197" t="s">
@@ -12254,15 +11552,15 @@
       <c r="V197" t="s">
         <v>422</v>
       </c>
-      <c r="W197" s="22" t="s">
+      <c r="W197" s="21" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="198" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>178</v>
       </c>
-      <c r="D198" s="14">
+      <c r="D198" s="13">
         <v>43070</v>
       </c>
       <c r="E198" t="s">
@@ -12291,15 +11589,15 @@
       <c r="V198" t="s">
         <v>423</v>
       </c>
-      <c r="W198" s="22" t="s">
+      <c r="W198" s="21" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="199" spans="2:23" ht="29" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:23" ht="32" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>179</v>
       </c>
-      <c r="D199" s="14">
+      <c r="D199" s="13">
         <v>43070</v>
       </c>
       <c r="E199" t="s">
@@ -12328,18 +11626,18 @@
       <c r="V199" t="s">
         <v>424</v>
       </c>
-      <c r="W199" s="22" t="s">
+      <c r="W199" s="21" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="200" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>180</v>
       </c>
       <c r="C200" s="13" t="s">
         <v>497</v>
       </c>
-      <c r="D200" s="14">
+      <c r="D200" s="13">
         <v>43126</v>
       </c>
       <c r="E200" t="s">
@@ -12387,7 +11685,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="201" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:23" x14ac:dyDescent="0.2">
       <c r="I201" s="6"/>
       <c r="J201" s="6"/>
       <c r="Q201" s="6"/>
@@ -12395,7 +11693,7 @@
       <c r="S201" s="6"/>
       <c r="T201" s="6"/>
     </row>
-    <row r="202" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:23" x14ac:dyDescent="0.2">
       <c r="I202" s="6"/>
       <c r="J202" s="6"/>
       <c r="Q202" s="6"/>
@@ -12403,7 +11701,7 @@
       <c r="S202" s="6"/>
       <c r="T202" s="6"/>
     </row>
-    <row r="203" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:23" x14ac:dyDescent="0.2">
       <c r="I203" s="6"/>
       <c r="J203" s="6"/>
       <c r="Q203" s="6"/>
@@ -12411,7 +11709,7 @@
       <c r="S203" s="6"/>
       <c r="T203" s="6"/>
     </row>
-    <row r="204" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:23" x14ac:dyDescent="0.2">
       <c r="I204" s="6"/>
       <c r="J204" s="6"/>
       <c r="Q204" s="6"/>
@@ -12419,7 +11717,7 @@
       <c r="S204" s="6"/>
       <c r="T204" s="6"/>
     </row>
-    <row r="205" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:23" x14ac:dyDescent="0.2">
       <c r="I205" s="6"/>
       <c r="J205" s="6"/>
       <c r="Q205" s="6"/>
@@ -12427,7 +11725,7 @@
       <c r="S205" s="6"/>
       <c r="T205" s="6"/>
     </row>
-    <row r="206" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:23" x14ac:dyDescent="0.2">
       <c r="I206" s="6"/>
       <c r="J206" s="6"/>
       <c r="Q206" s="6"/>
@@ -12435,7 +11733,7 @@
       <c r="S206" s="6"/>
       <c r="T206" s="6"/>
     </row>
-    <row r="207" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:23" x14ac:dyDescent="0.2">
       <c r="I207" s="6"/>
       <c r="J207" s="6"/>
       <c r="Q207" s="6"/>
@@ -12443,7 +11741,7 @@
       <c r="S207" s="6"/>
       <c r="T207" s="6"/>
     </row>
-    <row r="208" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:23" x14ac:dyDescent="0.2">
       <c r="I208" s="6"/>
       <c r="J208" s="6"/>
       <c r="Q208" s="6"/>
@@ -12451,7 +11749,7 @@
       <c r="S208" s="6"/>
       <c r="T208" s="6"/>
     </row>
-    <row r="209" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="209" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I209" s="6"/>
       <c r="J209" s="6"/>
       <c r="Q209" s="6"/>
@@ -12459,7 +11757,7 @@
       <c r="S209" s="6"/>
       <c r="T209" s="6"/>
     </row>
-    <row r="210" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="210" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I210" s="6"/>
       <c r="J210" s="6"/>
       <c r="Q210" s="6"/>
@@ -12467,7 +11765,7 @@
       <c r="S210" s="6"/>
       <c r="T210" s="6"/>
     </row>
-    <row r="211" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="211" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I211" s="6"/>
       <c r="J211" s="6"/>
       <c r="Q211" s="6"/>
@@ -12475,7 +11773,7 @@
       <c r="S211" s="6"/>
       <c r="T211" s="6"/>
     </row>
-    <row r="212" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="212" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I212" s="6"/>
       <c r="J212" s="6"/>
       <c r="Q212" s="6"/>
@@ -12483,7 +11781,7 @@
       <c r="S212" s="6"/>
       <c r="T212" s="6"/>
     </row>
-    <row r="213" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="213" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I213" s="6"/>
       <c r="J213" s="6"/>
       <c r="Q213" s="6"/>
@@ -12491,7 +11789,7 @@
       <c r="S213" s="6"/>
       <c r="T213" s="6"/>
     </row>
-    <row r="214" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="214" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I214" s="6"/>
       <c r="J214" s="6"/>
       <c r="Q214" s="6"/>
@@ -12499,7 +11797,7 @@
       <c r="S214" s="6"/>
       <c r="T214" s="6"/>
     </row>
-    <row r="215" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="215" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I215" s="6"/>
       <c r="J215" s="6"/>
       <c r="Q215" s="6"/>
@@ -12507,7 +11805,7 @@
       <c r="S215" s="6"/>
       <c r="T215" s="6"/>
     </row>
-    <row r="216" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="216" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I216" s="6"/>
       <c r="J216" s="6"/>
       <c r="Q216" s="6"/>
@@ -12515,7 +11813,7 @@
       <c r="S216" s="6"/>
       <c r="T216" s="6"/>
     </row>
-    <row r="217" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="217" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I217" s="6"/>
       <c r="J217" s="6"/>
       <c r="Q217" s="6"/>
@@ -12523,7 +11821,7 @@
       <c r="S217" s="6"/>
       <c r="T217" s="6"/>
     </row>
-    <row r="218" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="218" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I218" s="6"/>
       <c r="J218" s="6"/>
       <c r="Q218" s="6"/>
@@ -12531,7 +11829,7 @@
       <c r="S218" s="6"/>
       <c r="T218" s="6"/>
     </row>
-    <row r="219" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="219" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I219" s="6"/>
       <c r="J219" s="6"/>
       <c r="Q219" s="6"/>
@@ -12539,7 +11837,7 @@
       <c r="S219" s="6"/>
       <c r="T219" s="6"/>
     </row>
-    <row r="220" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="220" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I220" s="6"/>
       <c r="J220" s="6"/>
       <c r="Q220" s="6"/>
@@ -12547,7 +11845,7 @@
       <c r="S220" s="6"/>
       <c r="T220" s="6"/>
     </row>
-    <row r="221" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="221" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I221" s="6"/>
       <c r="J221" s="6"/>
       <c r="Q221" s="6"/>
@@ -12555,7 +11853,7 @@
       <c r="S221" s="6"/>
       <c r="T221" s="6"/>
     </row>
-    <row r="222" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="222" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I222" s="6"/>
       <c r="J222" s="6"/>
       <c r="Q222" s="6"/>
@@ -12563,7 +11861,7 @@
       <c r="S222" s="6"/>
       <c r="T222" s="6"/>
     </row>
-    <row r="223" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="223" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I223" s="6"/>
       <c r="J223" s="6"/>
       <c r="Q223" s="6"/>
@@ -12571,7 +11869,7 @@
       <c r="S223" s="6"/>
       <c r="T223" s="6"/>
     </row>
-    <row r="224" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="224" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I224" s="6"/>
       <c r="J224" s="6"/>
       <c r="Q224" s="6"/>
@@ -12579,7 +11877,7 @@
       <c r="S224" s="6"/>
       <c r="T224" s="6"/>
     </row>
-    <row r="225" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="225" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I225" s="6"/>
       <c r="J225" s="6"/>
       <c r="Q225" s="6"/>
@@ -12587,7 +11885,7 @@
       <c r="S225" s="6"/>
       <c r="T225" s="6"/>
     </row>
-    <row r="226" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="226" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I226" s="6"/>
       <c r="J226" s="6"/>
       <c r="Q226" s="6"/>
@@ -12595,7 +11893,7 @@
       <c r="S226" s="6"/>
       <c r="T226" s="6"/>
     </row>
-    <row r="227" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="227" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I227" s="6"/>
       <c r="J227" s="6"/>
       <c r="Q227" s="6"/>
@@ -12603,7 +11901,7 @@
       <c r="S227" s="6"/>
       <c r="T227" s="6"/>
     </row>
-    <row r="228" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="228" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I228" s="6"/>
       <c r="J228" s="6"/>
       <c r="Q228" s="6"/>
@@ -12611,7 +11909,7 @@
       <c r="S228" s="6"/>
       <c r="T228" s="6"/>
     </row>
-    <row r="229" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="229" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I229" s="6"/>
       <c r="J229" s="6"/>
       <c r="Q229" s="6"/>
@@ -12619,7 +11917,7 @@
       <c r="S229" s="6"/>
       <c r="T229" s="6"/>
     </row>
-    <row r="230" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="230" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I230" s="6"/>
       <c r="J230" s="6"/>
       <c r="Q230" s="6"/>
@@ -12627,7 +11925,7 @@
       <c r="S230" s="6"/>
       <c r="T230" s="6"/>
     </row>
-    <row r="231" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="231" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I231" s="6"/>
       <c r="J231" s="6"/>
       <c r="Q231" s="6"/>
@@ -12635,7 +11933,7 @@
       <c r="S231" s="6"/>
       <c r="T231" s="6"/>
     </row>
-    <row r="232" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="232" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I232" s="6"/>
       <c r="J232" s="6"/>
       <c r="Q232" s="6"/>
@@ -12643,7 +11941,7 @@
       <c r="S232" s="6"/>
       <c r="T232" s="6"/>
     </row>
-    <row r="233" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="233" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I233" s="6"/>
       <c r="J233" s="6"/>
       <c r="Q233" s="6"/>
@@ -12651,7 +11949,7 @@
       <c r="S233" s="6"/>
       <c r="T233" s="6"/>
     </row>
-    <row r="234" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="234" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I234" s="6"/>
       <c r="J234" s="6"/>
       <c r="Q234" s="6"/>
@@ -12659,7 +11957,7 @@
       <c r="S234" s="6"/>
       <c r="T234" s="6"/>
     </row>
-    <row r="235" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="235" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I235" s="6"/>
       <c r="J235" s="6"/>
       <c r="Q235" s="6"/>
@@ -12667,7 +11965,7 @@
       <c r="S235" s="6"/>
       <c r="T235" s="6"/>
     </row>
-    <row r="236" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="236" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I236" s="6"/>
       <c r="J236" s="6"/>
       <c r="Q236" s="6"/>
@@ -12675,7 +11973,7 @@
       <c r="S236" s="6"/>
       <c r="T236" s="6"/>
     </row>
-    <row r="237" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="237" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I237" s="6"/>
       <c r="J237" s="6"/>
       <c r="Q237" s="6"/>
@@ -12683,7 +11981,7 @@
       <c r="S237" s="6"/>
       <c r="T237" s="6"/>
     </row>
-    <row r="238" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="238" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I238" s="6"/>
       <c r="J238" s="6"/>
       <c r="Q238" s="6"/>
@@ -12691,7 +11989,7 @@
       <c r="S238" s="6"/>
       <c r="T238" s="6"/>
     </row>
-    <row r="239" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="239" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I239" s="6"/>
       <c r="J239" s="6"/>
       <c r="Q239" s="6"/>
@@ -12699,7 +11997,7 @@
       <c r="S239" s="6"/>
       <c r="T239" s="6"/>
     </row>
-    <row r="240" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="240" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I240" s="6"/>
       <c r="J240" s="6"/>
       <c r="Q240" s="6"/>
@@ -12707,7 +12005,7 @@
       <c r="S240" s="6"/>
       <c r="T240" s="6"/>
     </row>
-    <row r="241" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="241" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I241" s="6"/>
       <c r="J241" s="6"/>
       <c r="Q241" s="6"/>
@@ -12715,7 +12013,7 @@
       <c r="S241" s="6"/>
       <c r="T241" s="6"/>
     </row>
-    <row r="242" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="242" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I242" s="6"/>
       <c r="J242" s="6"/>
       <c r="Q242" s="6"/>
@@ -12723,7 +12021,7 @@
       <c r="S242" s="6"/>
       <c r="T242" s="6"/>
     </row>
-    <row r="243" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="243" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I243" s="6"/>
       <c r="J243" s="6"/>
       <c r="Q243" s="6"/>
@@ -12731,7 +12029,7 @@
       <c r="S243" s="6"/>
       <c r="T243" s="6"/>
     </row>
-    <row r="244" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="244" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I244" s="6"/>
       <c r="J244" s="6"/>
       <c r="Q244" s="6"/>
@@ -12739,7 +12037,7 @@
       <c r="S244" s="6"/>
       <c r="T244" s="6"/>
     </row>
-    <row r="245" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="245" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I245" s="6"/>
       <c r="J245" s="6"/>
       <c r="Q245" s="6"/>
@@ -12747,7 +12045,7 @@
       <c r="S245" s="6"/>
       <c r="T245" s="6"/>
     </row>
-    <row r="246" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="246" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I246" s="6"/>
       <c r="J246" s="6"/>
       <c r="Q246" s="6"/>
@@ -12755,7 +12053,7 @@
       <c r="S246" s="6"/>
       <c r="T246" s="6"/>
     </row>
-    <row r="247" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="247" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I247" s="6"/>
       <c r="J247" s="6"/>
       <c r="Q247" s="6"/>
@@ -12763,7 +12061,7 @@
       <c r="S247" s="6"/>
       <c r="T247" s="6"/>
     </row>
-    <row r="248" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="248" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I248" s="6"/>
       <c r="J248" s="6"/>
       <c r="Q248" s="6"/>
@@ -12771,7 +12069,7 @@
       <c r="S248" s="6"/>
       <c r="T248" s="6"/>
     </row>
-    <row r="249" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="249" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I249" s="6"/>
       <c r="J249" s="6"/>
       <c r="Q249" s="6"/>
@@ -12779,7 +12077,7 @@
       <c r="S249" s="6"/>
       <c r="T249" s="6"/>
     </row>
-    <row r="250" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="250" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I250" s="6"/>
       <c r="J250" s="6"/>
       <c r="Q250" s="6"/>
@@ -12787,7 +12085,7 @@
       <c r="S250" s="6"/>
       <c r="T250" s="6"/>
     </row>
-    <row r="251" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="251" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I251" s="6"/>
       <c r="J251" s="6"/>
       <c r="Q251" s="6"/>
@@ -12795,7 +12093,7 @@
       <c r="S251" s="6"/>
       <c r="T251" s="6"/>
     </row>
-    <row r="252" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="252" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I252" s="6"/>
       <c r="J252" s="6"/>
       <c r="Q252" s="6"/>
@@ -12803,7 +12101,7 @@
       <c r="S252" s="6"/>
       <c r="T252" s="6"/>
     </row>
-    <row r="253" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="253" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I253" s="6"/>
       <c r="J253" s="6"/>
       <c r="Q253" s="6"/>
@@ -12811,7 +12109,7 @@
       <c r="S253" s="6"/>
       <c r="T253" s="6"/>
     </row>
-    <row r="254" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="254" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I254" s="6"/>
       <c r="J254" s="6"/>
       <c r="Q254" s="6"/>
@@ -12819,7 +12117,7 @@
       <c r="S254" s="6"/>
       <c r="T254" s="6"/>
     </row>
-    <row r="255" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="255" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I255" s="6"/>
       <c r="J255" s="6"/>
       <c r="Q255" s="6"/>
@@ -12827,7 +12125,7 @@
       <c r="S255" s="6"/>
       <c r="T255" s="6"/>
     </row>
-    <row r="256" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="256" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I256" s="6"/>
       <c r="J256" s="6"/>
       <c r="Q256" s="6"/>
@@ -12835,7 +12133,7 @@
       <c r="S256" s="6"/>
       <c r="T256" s="6"/>
     </row>
-    <row r="257" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="257" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I257" s="6"/>
       <c r="J257" s="6"/>
       <c r="Q257" s="6"/>
@@ -12843,7 +12141,7 @@
       <c r="S257" s="6"/>
       <c r="T257" s="6"/>
     </row>
-    <row r="258" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="258" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I258" s="6"/>
       <c r="J258" s="6"/>
       <c r="Q258" s="6"/>
@@ -12851,7 +12149,7 @@
       <c r="S258" s="6"/>
       <c r="T258" s="6"/>
     </row>
-    <row r="259" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="259" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I259" s="6"/>
       <c r="J259" s="6"/>
       <c r="Q259" s="6"/>
@@ -12859,7 +12157,7 @@
       <c r="S259" s="6"/>
       <c r="T259" s="6"/>
     </row>
-    <row r="260" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="260" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I260" s="6"/>
       <c r="J260" s="6"/>
       <c r="Q260" s="6"/>
@@ -12867,7 +12165,7 @@
       <c r="S260" s="6"/>
       <c r="T260" s="6"/>
     </row>
-    <row r="261" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="261" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I261" s="6"/>
       <c r="J261" s="6"/>
       <c r="Q261" s="6"/>
@@ -12875,7 +12173,7 @@
       <c r="S261" s="6"/>
       <c r="T261" s="6"/>
     </row>
-    <row r="262" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="262" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I262" s="6"/>
       <c r="J262" s="6"/>
       <c r="Q262" s="6"/>
@@ -12883,7 +12181,7 @@
       <c r="S262" s="6"/>
       <c r="T262" s="6"/>
     </row>
-    <row r="263" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="263" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I263" s="6"/>
       <c r="J263" s="6"/>
       <c r="Q263" s="6"/>
@@ -12891,7 +12189,7 @@
       <c r="S263" s="6"/>
       <c r="T263" s="6"/>
     </row>
-    <row r="264" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="264" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I264" s="6"/>
       <c r="J264" s="6"/>
       <c r="Q264" s="6"/>
@@ -12899,7 +12197,7 @@
       <c r="S264" s="6"/>
       <c r="T264" s="6"/>
     </row>
-    <row r="265" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="265" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I265" s="6"/>
       <c r="J265" s="6"/>
       <c r="Q265" s="6"/>
@@ -12907,7 +12205,7 @@
       <c r="S265" s="6"/>
       <c r="T265" s="6"/>
     </row>
-    <row r="266" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="266" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I266" s="6"/>
       <c r="J266" s="6"/>
       <c r="Q266" s="6"/>
@@ -12915,7 +12213,7 @@
       <c r="S266" s="6"/>
       <c r="T266" s="6"/>
     </row>
-    <row r="267" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="267" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I267" s="6"/>
       <c r="J267" s="6"/>
       <c r="Q267" s="6"/>
@@ -12923,7 +12221,7 @@
       <c r="S267" s="6"/>
       <c r="T267" s="6"/>
     </row>
-    <row r="268" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="268" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I268" s="6"/>
       <c r="J268" s="6"/>
       <c r="Q268" s="6"/>
@@ -12931,7 +12229,7 @@
       <c r="S268" s="6"/>
       <c r="T268" s="6"/>
     </row>
-    <row r="269" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="269" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I269" s="6"/>
       <c r="J269" s="6"/>
       <c r="Q269" s="6"/>
@@ -12939,7 +12237,7 @@
       <c r="S269" s="6"/>
       <c r="T269" s="6"/>
     </row>
-    <row r="270" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="270" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I270" s="6"/>
       <c r="J270" s="6"/>
       <c r="Q270" s="6"/>
@@ -12947,7 +12245,7 @@
       <c r="S270" s="6"/>
       <c r="T270" s="6"/>
     </row>
-    <row r="271" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="271" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I271" s="6"/>
       <c r="J271" s="6"/>
       <c r="Q271" s="6"/>
@@ -12955,7 +12253,7 @@
       <c r="S271" s="6"/>
       <c r="T271" s="6"/>
     </row>
-    <row r="272" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="272" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I272" s="6"/>
       <c r="J272" s="6"/>
       <c r="Q272" s="6"/>
@@ -12963,7 +12261,7 @@
       <c r="S272" s="6"/>
       <c r="T272" s="6"/>
     </row>
-    <row r="273" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="273" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I273" s="6"/>
       <c r="J273" s="6"/>
       <c r="Q273" s="6"/>
@@ -12971,7 +12269,7 @@
       <c r="S273" s="6"/>
       <c r="T273" s="6"/>
     </row>
-    <row r="274" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="274" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I274" s="6"/>
       <c r="J274" s="6"/>
       <c r="Q274" s="6"/>
@@ -12979,7 +12277,7 @@
       <c r="S274" s="6"/>
       <c r="T274" s="6"/>
     </row>
-    <row r="275" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="275" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I275" s="6"/>
       <c r="J275" s="6"/>
       <c r="Q275" s="6"/>
@@ -12987,7 +12285,7 @@
       <c r="S275" s="6"/>
       <c r="T275" s="6"/>
     </row>
-    <row r="276" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="276" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I276" s="6"/>
       <c r="J276" s="6"/>
       <c r="Q276" s="6"/>
@@ -12995,7 +12293,7 @@
       <c r="S276" s="6"/>
       <c r="T276" s="6"/>
     </row>
-    <row r="277" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="277" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I277" s="6"/>
       <c r="J277" s="6"/>
       <c r="Q277" s="6"/>
@@ -13003,7 +12301,7 @@
       <c r="S277" s="6"/>
       <c r="T277" s="6"/>
     </row>
-    <row r="278" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="278" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I278" s="6"/>
       <c r="J278" s="6"/>
       <c r="Q278" s="6"/>
@@ -13011,7 +12309,7 @@
       <c r="S278" s="6"/>
       <c r="T278" s="6"/>
     </row>
-    <row r="279" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="279" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I279" s="6"/>
       <c r="J279" s="6"/>
       <c r="Q279" s="6"/>
@@ -13019,7 +12317,7 @@
       <c r="S279" s="6"/>
       <c r="T279" s="6"/>
     </row>
-    <row r="280" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="280" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I280" s="6"/>
       <c r="J280" s="6"/>
       <c r="Q280" s="6"/>
@@ -13027,7 +12325,7 @@
       <c r="S280" s="6"/>
       <c r="T280" s="6"/>
     </row>
-    <row r="281" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="281" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I281" s="6"/>
       <c r="J281" s="6"/>
       <c r="Q281" s="6"/>
@@ -13035,7 +12333,7 @@
       <c r="S281" s="6"/>
       <c r="T281" s="6"/>
     </row>
-    <row r="282" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="282" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I282" s="6"/>
       <c r="J282" s="6"/>
       <c r="Q282" s="6"/>
@@ -13043,7 +12341,7 @@
       <c r="S282" s="6"/>
       <c r="T282" s="6"/>
     </row>
-    <row r="283" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="283" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I283" s="6"/>
       <c r="J283" s="6"/>
       <c r="Q283" s="6"/>
@@ -13051,7 +12349,7 @@
       <c r="S283" s="6"/>
       <c r="T283" s="6"/>
     </row>
-    <row r="284" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="284" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I284" s="6"/>
       <c r="J284" s="6"/>
       <c r="Q284" s="6"/>
@@ -13059,7 +12357,7 @@
       <c r="S284" s="6"/>
       <c r="T284" s="6"/>
     </row>
-    <row r="285" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="285" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I285" s="6"/>
       <c r="J285" s="6"/>
       <c r="Q285" s="6"/>
@@ -13067,7 +12365,7 @@
       <c r="S285" s="6"/>
       <c r="T285" s="6"/>
     </row>
-    <row r="286" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="286" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I286" s="6"/>
       <c r="J286" s="6"/>
       <c r="Q286" s="6"/>
@@ -13075,7 +12373,7 @@
       <c r="S286" s="6"/>
       <c r="T286" s="6"/>
     </row>
-    <row r="287" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="287" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I287" s="6"/>
       <c r="J287" s="6"/>
       <c r="Q287" s="6"/>
@@ -13083,7 +12381,7 @@
       <c r="S287" s="6"/>
       <c r="T287" s="6"/>
     </row>
-    <row r="288" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="288" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I288" s="6"/>
       <c r="J288" s="6"/>
       <c r="Q288" s="6"/>
@@ -13091,7 +12389,7 @@
       <c r="S288" s="6"/>
       <c r="T288" s="6"/>
     </row>
-    <row r="289" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="289" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I289" s="6"/>
       <c r="J289" s="6"/>
       <c r="Q289" s="6"/>
@@ -13099,7 +12397,7 @@
       <c r="S289" s="6"/>
       <c r="T289" s="6"/>
     </row>
-    <row r="290" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="290" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I290" s="6"/>
       <c r="J290" s="6"/>
       <c r="Q290" s="6"/>
@@ -13107,7 +12405,7 @@
       <c r="S290" s="6"/>
       <c r="T290" s="6"/>
     </row>
-    <row r="291" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="291" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I291" s="6"/>
       <c r="J291" s="6"/>
       <c r="Q291" s="6"/>
@@ -13115,7 +12413,7 @@
       <c r="S291" s="6"/>
       <c r="T291" s="6"/>
     </row>
-    <row r="292" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="292" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I292" s="6"/>
       <c r="J292" s="6"/>
       <c r="Q292" s="6"/>
@@ -13123,7 +12421,7 @@
       <c r="S292" s="6"/>
       <c r="T292" s="6"/>
     </row>
-    <row r="293" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="293" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I293" s="6"/>
       <c r="J293" s="6"/>
       <c r="Q293" s="6"/>
@@ -13131,7 +12429,7 @@
       <c r="S293" s="6"/>
       <c r="T293" s="6"/>
     </row>
-    <row r="294" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="294" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I294" s="6"/>
       <c r="J294" s="6"/>
       <c r="Q294" s="6"/>
@@ -13139,7 +12437,7 @@
       <c r="S294" s="6"/>
       <c r="T294" s="6"/>
     </row>
-    <row r="295" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="295" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I295" s="6"/>
       <c r="J295" s="6"/>
       <c r="Q295" s="6"/>
@@ -13147,7 +12445,7 @@
       <c r="S295" s="6"/>
       <c r="T295" s="6"/>
     </row>
-    <row r="296" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="296" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I296" s="6"/>
       <c r="J296" s="6"/>
       <c r="Q296" s="6"/>
@@ -13155,7 +12453,7 @@
       <c r="S296" s="6"/>
       <c r="T296" s="6"/>
     </row>
-    <row r="297" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="297" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I297" s="6"/>
       <c r="J297" s="6"/>
       <c r="Q297" s="6"/>
@@ -13163,7 +12461,7 @@
       <c r="S297" s="6"/>
       <c r="T297" s="6"/>
     </row>
-    <row r="298" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="298" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I298" s="6"/>
       <c r="J298" s="6"/>
       <c r="Q298" s="6"/>
@@ -13171,7 +12469,7 @@
       <c r="S298" s="6"/>
       <c r="T298" s="6"/>
     </row>
-    <row r="299" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="299" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I299" s="6"/>
       <c r="J299" s="6"/>
       <c r="Q299" s="6"/>
@@ -13179,7 +12477,7 @@
       <c r="S299" s="6"/>
       <c r="T299" s="6"/>
     </row>
-    <row r="300" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="300" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I300" s="6"/>
       <c r="J300" s="6"/>
       <c r="Q300" s="6"/>
@@ -13187,7 +12485,7 @@
       <c r="S300" s="6"/>
       <c r="T300" s="6"/>
     </row>
-    <row r="301" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="301" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I301" s="6"/>
       <c r="J301" s="6"/>
       <c r="Q301" s="6"/>
@@ -13195,7 +12493,7 @@
       <c r="S301" s="6"/>
       <c r="T301" s="6"/>
     </row>
-    <row r="302" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="302" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I302" s="6"/>
       <c r="J302" s="6"/>
       <c r="Q302" s="6"/>
@@ -13203,7 +12501,7 @@
       <c r="S302" s="6"/>
       <c r="T302" s="6"/>
     </row>
-    <row r="303" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="303" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I303" s="6"/>
       <c r="J303" s="6"/>
       <c r="Q303" s="6"/>
@@ -13211,7 +12509,7 @@
       <c r="S303" s="6"/>
       <c r="T303" s="6"/>
     </row>
-    <row r="304" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="304" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I304" s="6"/>
       <c r="J304" s="6"/>
       <c r="Q304" s="6"/>
@@ -13219,7 +12517,7 @@
       <c r="S304" s="6"/>
       <c r="T304" s="6"/>
     </row>
-    <row r="305" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="305" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I305" s="6"/>
       <c r="J305" s="6"/>
       <c r="Q305" s="6"/>
@@ -13227,7 +12525,7 @@
       <c r="S305" s="6"/>
       <c r="T305" s="6"/>
     </row>
-    <row r="306" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="306" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I306" s="6"/>
       <c r="J306" s="6"/>
       <c r="Q306" s="6"/>
@@ -13235,7 +12533,7 @@
       <c r="S306" s="6"/>
       <c r="T306" s="6"/>
     </row>
-    <row r="307" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="307" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I307" s="6"/>
       <c r="J307" s="6"/>
       <c r="Q307" s="6"/>
@@ -13243,7 +12541,7 @@
       <c r="S307" s="6"/>
       <c r="T307" s="6"/>
     </row>
-    <row r="308" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="308" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I308" s="6"/>
       <c r="J308" s="6"/>
       <c r="Q308" s="6"/>
@@ -13251,7 +12549,7 @@
       <c r="S308" s="6"/>
       <c r="T308" s="6"/>
     </row>
-    <row r="309" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="309" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I309" s="6"/>
       <c r="J309" s="6"/>
       <c r="Q309" s="6"/>
@@ -13259,7 +12557,7 @@
       <c r="S309" s="6"/>
       <c r="T309" s="6"/>
     </row>
-    <row r="310" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="310" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I310" s="6"/>
       <c r="J310" s="6"/>
       <c r="Q310" s="6"/>
@@ -13267,7 +12565,7 @@
       <c r="S310" s="6"/>
       <c r="T310" s="6"/>
     </row>
-    <row r="311" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="311" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I311" s="6"/>
       <c r="J311" s="6"/>
       <c r="Q311" s="6"/>
@@ -13275,7 +12573,7 @@
       <c r="S311" s="6"/>
       <c r="T311" s="6"/>
     </row>
-    <row r="312" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="312" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I312" s="6"/>
       <c r="J312" s="6"/>
       <c r="Q312" s="6"/>
@@ -13283,7 +12581,7 @@
       <c r="S312" s="6"/>
       <c r="T312" s="6"/>
     </row>
-    <row r="313" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="313" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I313" s="6"/>
       <c r="J313" s="6"/>
       <c r="Q313" s="6"/>
@@ -13291,7 +12589,7 @@
       <c r="S313" s="6"/>
       <c r="T313" s="6"/>
     </row>
-    <row r="314" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="314" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I314" s="6"/>
       <c r="J314" s="6"/>
       <c r="Q314" s="6"/>
@@ -13299,7 +12597,7 @@
       <c r="S314" s="6"/>
       <c r="T314" s="6"/>
     </row>
-    <row r="315" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="315" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I315" s="6"/>
       <c r="J315" s="6"/>
       <c r="Q315" s="6"/>
@@ -13307,7 +12605,7 @@
       <c r="S315" s="6"/>
       <c r="T315" s="6"/>
     </row>
-    <row r="316" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="316" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I316" s="6"/>
       <c r="J316" s="6"/>
       <c r="Q316" s="6"/>
@@ -13315,7 +12613,7 @@
       <c r="S316" s="6"/>
       <c r="T316" s="6"/>
     </row>
-    <row r="317" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="317" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I317" s="6"/>
       <c r="J317" s="6"/>
       <c r="Q317" s="6"/>
@@ -13323,7 +12621,7 @@
       <c r="S317" s="6"/>
       <c r="T317" s="6"/>
     </row>
-    <row r="318" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="318" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I318" s="6"/>
       <c r="J318" s="6"/>
       <c r="Q318" s="6"/>
@@ -13331,7 +12629,7 @@
       <c r="S318" s="6"/>
       <c r="T318" s="6"/>
     </row>
-    <row r="319" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="319" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I319" s="6"/>
       <c r="J319" s="6"/>
       <c r="Q319" s="6"/>
@@ -13339,7 +12637,7 @@
       <c r="S319" s="6"/>
       <c r="T319" s="6"/>
     </row>
-    <row r="320" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="320" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I320" s="6"/>
       <c r="J320" s="6"/>
       <c r="Q320" s="6"/>
@@ -13347,7 +12645,7 @@
       <c r="S320" s="6"/>
       <c r="T320" s="6"/>
     </row>
-    <row r="321" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="321" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I321" s="6"/>
       <c r="J321" s="6"/>
       <c r="Q321" s="6"/>
@@ -13355,7 +12653,7 @@
       <c r="S321" s="6"/>
       <c r="T321" s="6"/>
     </row>
-    <row r="322" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="322" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I322" s="6"/>
       <c r="J322" s="6"/>
       <c r="Q322" s="6"/>
@@ -13363,7 +12661,7 @@
       <c r="S322" s="6"/>
       <c r="T322" s="6"/>
     </row>
-    <row r="323" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="323" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I323" s="6"/>
       <c r="J323" s="6"/>
       <c r="Q323" s="6"/>
@@ -13371,7 +12669,7 @@
       <c r="S323" s="6"/>
       <c r="T323" s="6"/>
     </row>
-    <row r="324" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="324" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I324" s="6"/>
       <c r="J324" s="6"/>
       <c r="Q324" s="6"/>
@@ -13379,7 +12677,7 @@
       <c r="S324" s="6"/>
       <c r="T324" s="6"/>
     </row>
-    <row r="325" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="325" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I325" s="6"/>
       <c r="J325" s="6"/>
       <c r="Q325" s="6"/>
@@ -13387,7 +12685,7 @@
       <c r="S325" s="6"/>
       <c r="T325" s="6"/>
     </row>
-    <row r="326" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="326" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I326" s="6"/>
       <c r="J326" s="6"/>
       <c r="Q326" s="6"/>
@@ -13395,7 +12693,7 @@
       <c r="S326" s="6"/>
       <c r="T326" s="6"/>
     </row>
-    <row r="327" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="327" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I327" s="6"/>
       <c r="J327" s="6"/>
       <c r="Q327" s="6"/>
@@ -13403,7 +12701,7 @@
       <c r="S327" s="6"/>
       <c r="T327" s="6"/>
     </row>
-    <row r="328" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="328" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I328" s="6"/>
       <c r="J328" s="6"/>
       <c r="Q328" s="6"/>
@@ -13411,7 +12709,7 @@
       <c r="S328" s="6"/>
       <c r="T328" s="6"/>
     </row>
-    <row r="329" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="329" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I329" s="6"/>
       <c r="J329" s="6"/>
       <c r="Q329" s="6"/>
@@ -13419,7 +12717,7 @@
       <c r="S329" s="6"/>
       <c r="T329" s="6"/>
     </row>
-    <row r="330" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="330" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I330" s="6"/>
       <c r="J330" s="6"/>
       <c r="Q330" s="6"/>
@@ -13427,7 +12725,7 @@
       <c r="S330" s="6"/>
       <c r="T330" s="6"/>
     </row>
-    <row r="331" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="331" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I331" s="6"/>
       <c r="J331" s="6"/>
       <c r="Q331" s="6"/>
@@ -13435,7 +12733,7 @@
       <c r="S331" s="6"/>
       <c r="T331" s="6"/>
     </row>
-    <row r="332" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="332" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I332" s="6"/>
       <c r="J332" s="6"/>
       <c r="Q332" s="6"/>
@@ -13443,7 +12741,7 @@
       <c r="S332" s="6"/>
       <c r="T332" s="6"/>
     </row>
-    <row r="333" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="333" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I333" s="6"/>
       <c r="J333" s="6"/>
       <c r="Q333" s="6"/>
@@ -13451,7 +12749,7 @@
       <c r="S333" s="6"/>
       <c r="T333" s="6"/>
     </row>
-    <row r="334" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="334" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I334" s="6"/>
       <c r="J334" s="6"/>
       <c r="Q334" s="6"/>
@@ -13459,7 +12757,7 @@
       <c r="S334" s="6"/>
       <c r="T334" s="6"/>
     </row>
-    <row r="335" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="335" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I335" s="6"/>
       <c r="J335" s="6"/>
       <c r="Q335" s="6"/>
@@ -13467,7 +12765,7 @@
       <c r="S335" s="6"/>
       <c r="T335" s="6"/>
     </row>
-    <row r="336" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="336" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I336" s="6"/>
       <c r="J336" s="6"/>
       <c r="Q336" s="6"/>
@@ -13475,7 +12773,7 @@
       <c r="S336" s="6"/>
       <c r="T336" s="6"/>
     </row>
-    <row r="337" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="337" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I337" s="6"/>
       <c r="J337" s="6"/>
       <c r="Q337" s="6"/>
@@ -13483,7 +12781,7 @@
       <c r="S337" s="6"/>
       <c r="T337" s="6"/>
     </row>
-    <row r="338" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="338" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I338" s="6"/>
       <c r="J338" s="6"/>
       <c r="Q338" s="6"/>
@@ -13491,7 +12789,7 @@
       <c r="S338" s="6"/>
       <c r="T338" s="6"/>
     </row>
-    <row r="339" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="339" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I339" s="6"/>
       <c r="J339" s="6"/>
       <c r="Q339" s="6"/>
@@ -13499,7 +12797,7 @@
       <c r="S339" s="6"/>
       <c r="T339" s="6"/>
     </row>
-    <row r="340" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="340" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I340" s="6"/>
       <c r="J340" s="6"/>
       <c r="Q340" s="6"/>
@@ -13507,7 +12805,7 @@
       <c r="S340" s="6"/>
       <c r="T340" s="6"/>
     </row>
-    <row r="341" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="341" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I341" s="6"/>
       <c r="J341" s="6"/>
       <c r="Q341" s="6"/>
@@ -13515,7 +12813,7 @@
       <c r="S341" s="6"/>
       <c r="T341" s="6"/>
     </row>
-    <row r="342" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="342" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I342" s="6"/>
       <c r="J342" s="6"/>
       <c r="Q342" s="6"/>
@@ -13523,7 +12821,7 @@
       <c r="S342" s="6"/>
       <c r="T342" s="6"/>
     </row>
-    <row r="343" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="343" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I343" s="6"/>
       <c r="J343" s="6"/>
       <c r="Q343" s="6"/>
@@ -13531,7 +12829,7 @@
       <c r="S343" s="6"/>
       <c r="T343" s="6"/>
     </row>
-    <row r="344" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="344" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I344" s="6"/>
       <c r="J344" s="6"/>
       <c r="Q344" s="6"/>
@@ -13539,7 +12837,7 @@
       <c r="S344" s="6"/>
       <c r="T344" s="6"/>
     </row>
-    <row r="345" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="345" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I345" s="6"/>
       <c r="J345" s="6"/>
       <c r="Q345" s="6"/>
@@ -13547,7 +12845,7 @@
       <c r="S345" s="6"/>
       <c r="T345" s="6"/>
     </row>
-    <row r="346" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="346" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I346" s="6"/>
       <c r="J346" s="6"/>
       <c r="Q346" s="6"/>
@@ -13555,7 +12853,7 @@
       <c r="S346" s="6"/>
       <c r="T346" s="6"/>
     </row>
-    <row r="347" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="347" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I347" s="6"/>
       <c r="J347" s="6"/>
       <c r="Q347" s="6"/>
@@ -13563,7 +12861,7 @@
       <c r="S347" s="6"/>
       <c r="T347" s="6"/>
     </row>
-    <row r="348" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="348" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I348" s="6"/>
       <c r="J348" s="6"/>
       <c r="Q348" s="6"/>
@@ -13571,7 +12869,7 @@
       <c r="S348" s="6"/>
       <c r="T348" s="6"/>
     </row>
-    <row r="349" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="349" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I349" s="6"/>
       <c r="J349" s="6"/>
       <c r="Q349" s="6"/>
@@ -13579,7 +12877,7 @@
       <c r="S349" s="6"/>
       <c r="T349" s="6"/>
     </row>
-    <row r="350" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="350" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I350" s="6"/>
       <c r="J350" s="6"/>
       <c r="Q350" s="6"/>
@@ -13587,7 +12885,7 @@
       <c r="S350" s="6"/>
       <c r="T350" s="6"/>
     </row>
-    <row r="351" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="351" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I351" s="6"/>
       <c r="J351" s="6"/>
       <c r="Q351" s="6"/>
@@ -13595,7 +12893,7 @@
       <c r="S351" s="6"/>
       <c r="T351" s="6"/>
     </row>
-    <row r="352" spans="9:20" x14ac:dyDescent="0.35">
+    <row r="352" spans="9:20" x14ac:dyDescent="0.2">
       <c r="I352" s="6"/>
       <c r="J352" s="6"/>
       <c r="Q352" s="6"/>
@@ -13603,7 +12901,7 @@
       <c r="S352" s="6"/>
       <c r="T352" s="6"/>
     </row>
-    <row r="353" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="353" spans="2:20" x14ac:dyDescent="0.2">
       <c r="I353" s="6"/>
       <c r="J353" s="6"/>
       <c r="Q353" s="6"/>
@@ -13611,7 +12909,7 @@
       <c r="S353" s="6"/>
       <c r="T353" s="6"/>
     </row>
-    <row r="354" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="354" spans="2:20" x14ac:dyDescent="0.2">
       <c r="I354" s="6"/>
       <c r="J354" s="6"/>
       <c r="Q354" s="6"/>
@@ -13619,7 +12917,7 @@
       <c r="S354" s="6"/>
       <c r="T354" s="6"/>
     </row>
-    <row r="355" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="355" spans="2:20" x14ac:dyDescent="0.2">
       <c r="I355" s="6"/>
       <c r="J355" s="6"/>
       <c r="Q355" s="6"/>
@@ -13627,7 +12925,7 @@
       <c r="S355" s="6"/>
       <c r="T355" s="6"/>
     </row>
-    <row r="356" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="356" spans="2:20" x14ac:dyDescent="0.2">
       <c r="I356" s="6"/>
       <c r="J356" s="6"/>
       <c r="Q356" s="6"/>
@@ -13635,7 +12933,7 @@
       <c r="S356" s="6"/>
       <c r="T356" s="6"/>
     </row>
-    <row r="357" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="357" spans="2:20" x14ac:dyDescent="0.2">
       <c r="I357" s="6"/>
       <c r="J357" s="6"/>
       <c r="Q357" s="6"/>
@@ -13643,7 +12941,7 @@
       <c r="S357" s="6"/>
       <c r="T357" s="6"/>
     </row>
-    <row r="358" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="358" spans="2:20" x14ac:dyDescent="0.2">
       <c r="I358" s="6"/>
       <c r="J358" s="6"/>
       <c r="Q358" s="6"/>
@@ -13651,7 +12949,7 @@
       <c r="S358" s="6"/>
       <c r="T358" s="6"/>
     </row>
-    <row r="359" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="359" spans="2:20" x14ac:dyDescent="0.2">
       <c r="I359" s="6"/>
       <c r="J359" s="6"/>
       <c r="Q359" s="6"/>
@@ -13659,7 +12957,7 @@
       <c r="S359" s="6"/>
       <c r="T359" s="6"/>
     </row>
-    <row r="360" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="360" spans="2:20" x14ac:dyDescent="0.2">
       <c r="I360" s="6"/>
       <c r="J360" s="6"/>
       <c r="Q360" s="6"/>
@@ -13667,7 +12965,7 @@
       <c r="S360" s="6"/>
       <c r="T360" s="6"/>
     </row>
-    <row r="361" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="361" spans="2:20" x14ac:dyDescent="0.2">
       <c r="I361" s="6"/>
       <c r="J361" s="6"/>
       <c r="Q361" s="6"/>
@@ -13675,7 +12973,7 @@
       <c r="S361" s="6"/>
       <c r="T361" s="6"/>
     </row>
-    <row r="362" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="362" spans="2:20" x14ac:dyDescent="0.2">
       <c r="I362" s="6"/>
       <c r="J362" s="6"/>
       <c r="Q362" s="6"/>
@@ -13683,7 +12981,7 @@
       <c r="S362" s="6"/>
       <c r="T362" s="6"/>
     </row>
-    <row r="363" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="363" spans="2:20" x14ac:dyDescent="0.2">
       <c r="I363" s="6"/>
       <c r="J363" s="6"/>
       <c r="Q363" s="6"/>
@@ -13691,7 +12989,7 @@
       <c r="S363" s="6"/>
       <c r="T363" s="6"/>
     </row>
-    <row r="364" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="364" spans="2:20" x14ac:dyDescent="0.2">
       <c r="I364" s="6"/>
       <c r="J364" s="6"/>
       <c r="Q364" s="6"/>
@@ -13699,574 +12997,74 @@
       <c r="S364" s="6"/>
       <c r="T364" s="6"/>
     </row>
-    <row r="366" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="366" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B366" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="367" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="367" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B367" s="3" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B9:W200" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="B17:C18 E17:F18 U197:V200 U17:V18 U137:V146 U72:V72 U70:V70 U59:V60 U148:V149 U184:V186 U179:V180 U173:V177 U156:V159 U152:V154 U115:V117 U100:V113 U94:V98 U76:V92 U68:V68 U65:V66 U62:V63 U43:V47 U40:V40 U37:V38 U25:W26 U23:V23 U170:V171 U166:V167 U20:V21 U14:V15 U12:V12 U161:V162 U189:V189 U31:V34 U28:W28 D10:D200 U49:V57 T11:T200 G11:H200 B19:F200 B11:F16 I137:N146 I100:S136 I169:S182 I49:S92 I197:S200 I11:S18 I148:N149 I184:S184 I150:S162 I94:S98 I42:S47 I40:S40 I36:S38 I25:S29 I21:S23 I164:S167 J189:S189 I32:S34 B10:V10 J19:S20 J30:S31 I186:S188 J185:S185 J196:S196 J168:S168 I190:S192 J24:S24 J35:S35 K41:S41 K48:S48 J93:S93 J99:S99 O137:S149 I194:S195 J163:S163 J183:S183 J193:S193 W43:W44 W61:W62 W46 W64 U120:V135">
-    <cfRule type="expression" dxfId="111" priority="232">
+  <conditionalFormatting sqref="B10:V10 B11:F16 B17:C18 E17:F18 B19:F200">
+    <cfRule type="expression" dxfId="11" priority="232">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U188:V188">
-    <cfRule type="expression" dxfId="110" priority="228">
+  <conditionalFormatting sqref="D10:D200">
+    <cfRule type="expression" dxfId="10" priority="148">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U196:V196">
-    <cfRule type="expression" dxfId="109" priority="226">
+  <conditionalFormatting sqref="G11:T200">
+    <cfRule type="expression" dxfId="9" priority="40">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U11:V11">
-    <cfRule type="expression" dxfId="108" priority="225">
+  <conditionalFormatting sqref="R10:T200">
+    <cfRule type="expression" dxfId="8" priority="41">
+      <formula>AND($Q10=R$1,R10="")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U29:U30">
+    <cfRule type="expression" dxfId="7" priority="183">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U13:V13">
-    <cfRule type="expression" dxfId="107" priority="224">
+  <conditionalFormatting sqref="U11:V23">
+    <cfRule type="expression" dxfId="6" priority="214">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D18 U16:V16 I19:I20 I24 I30:I31 I35 I39 I48 I93 I99 I163 I168 I183 I185 I189 I193 I196">
-    <cfRule type="expression" dxfId="106" priority="223">
+  <conditionalFormatting sqref="U31:V200">
+    <cfRule type="expression" dxfId="5" priority="162">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U19:V19">
-    <cfRule type="expression" dxfId="105" priority="222">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U168:V168">
-    <cfRule type="expression" dxfId="104" priority="219">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U169:V169">
-    <cfRule type="expression" dxfId="103" priority="218">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U187:V187">
-    <cfRule type="expression" dxfId="102" priority="217">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U190:V190">
-    <cfRule type="expression" dxfId="101" priority="216">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U22:V22">
-    <cfRule type="expression" dxfId="100" priority="214">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U24:W24 W42 W60">
-    <cfRule type="expression" dxfId="99" priority="213">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U35:V35">
-    <cfRule type="expression" dxfId="98" priority="212">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U39:V39 J39:S39">
-    <cfRule type="expression" dxfId="97" priority="211">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U41:V41 I41">
-    <cfRule type="expression" dxfId="96" priority="210">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41">
-    <cfRule type="expression" dxfId="95" priority="209">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U42:V42">
-    <cfRule type="expression" dxfId="94" priority="208">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U48:V48">
-    <cfRule type="expression" dxfId="93" priority="207">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
-    <cfRule type="expression" dxfId="92" priority="206">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U61:V61">
-    <cfRule type="expression" dxfId="91" priority="205">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U64:V64">
-    <cfRule type="expression" dxfId="90" priority="204">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U67:V67">
-    <cfRule type="expression" dxfId="89" priority="203">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U73:V73">
-    <cfRule type="expression" dxfId="88" priority="202">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U74:V75">
-    <cfRule type="expression" dxfId="87" priority="201">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U93:V93">
-    <cfRule type="expression" dxfId="86" priority="200">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U99:V99">
-    <cfRule type="expression" dxfId="85" priority="199">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U114:V114">
-    <cfRule type="expression" dxfId="84" priority="198">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U118:V118">
-    <cfRule type="expression" dxfId="83" priority="197">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U119:V119">
-    <cfRule type="expression" dxfId="82" priority="196">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U155:V155">
-    <cfRule type="expression" dxfId="81" priority="194">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U178:V178">
-    <cfRule type="expression" dxfId="80" priority="191">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U181:V182">
-    <cfRule type="expression" dxfId="79" priority="190">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U27:W27 W45 W63">
-    <cfRule type="expression" dxfId="78" priority="187">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V29:W29 W47 W65">
-    <cfRule type="expression" dxfId="77" priority="186">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U29">
-    <cfRule type="expression" dxfId="76" priority="185">
+  <conditionalFormatting sqref="U24:W28">
+    <cfRule type="expression" dxfId="4" priority="187">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V30">
-    <cfRule type="expression" dxfId="75" priority="184">
+    <cfRule type="expression" dxfId="3" priority="184">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U30">
-    <cfRule type="expression" dxfId="74" priority="183">
+  <conditionalFormatting sqref="V29:W29">
+    <cfRule type="expression" dxfId="2" priority="186">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U147:V147 I147:M147">
-    <cfRule type="expression" dxfId="73" priority="182">
+  <conditionalFormatting sqref="W10:W23">
+    <cfRule type="expression" dxfId="1" priority="23">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U165:V165">
-    <cfRule type="expression" dxfId="72" priority="181">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V191">
-    <cfRule type="expression" dxfId="71" priority="180">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U191">
-    <cfRule type="expression" dxfId="70" priority="179">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U195:V195">
-    <cfRule type="expression" dxfId="69" priority="178">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37:D38 U36:V36">
-    <cfRule type="expression" dxfId="68" priority="177">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U58:V58">
-    <cfRule type="expression" dxfId="67" priority="176">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U69:V69">
-    <cfRule type="expression" dxfId="66" priority="175">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U71:V71">
-    <cfRule type="expression" dxfId="65" priority="174">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U136:V136">
-    <cfRule type="expression" dxfId="64" priority="173">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U150:V150">
-    <cfRule type="expression" dxfId="63" priority="172">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U151:V151">
-    <cfRule type="expression" dxfId="62" priority="171">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U160:V160">
-    <cfRule type="expression" dxfId="61" priority="169">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U163:V163">
-    <cfRule type="expression" dxfId="60" priority="168">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U164:V164">
-    <cfRule type="expression" dxfId="59" priority="167">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U172:V172">
-    <cfRule type="expression" dxfId="58" priority="166">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U183:V183">
-    <cfRule type="expression" dxfId="57" priority="165">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U192:V192">
-    <cfRule type="expression" dxfId="56" priority="164">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U193:V193">
-    <cfRule type="expression" dxfId="55" priority="163">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U194:V194">
-    <cfRule type="expression" dxfId="54" priority="162">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D168">
-    <cfRule type="expression" dxfId="53" priority="161">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D170">
-    <cfRule type="expression" dxfId="52" priority="160">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D170">
-    <cfRule type="expression" dxfId="51" priority="159">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D171">
-    <cfRule type="expression" dxfId="50" priority="158">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D171">
-    <cfRule type="expression" dxfId="49" priority="157">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="48" priority="156">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="47" priority="155">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D157">
-    <cfRule type="expression" dxfId="46" priority="154">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D157">
-    <cfRule type="expression" dxfId="45" priority="153">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D159">
-    <cfRule type="expression" dxfId="44" priority="152">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D159">
-    <cfRule type="expression" dxfId="43" priority="151">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="42" priority="150">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="41" priority="149">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D72">
-    <cfRule type="expression" dxfId="40" priority="148">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R10:T200">
-    <cfRule type="expression" dxfId="39" priority="41">
-      <formula>AND($Q10=R$1,R10="")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N147">
-    <cfRule type="expression" dxfId="38" priority="40">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W31:W32 W34 W49:W50 W67:W68 W52 W70">
-    <cfRule type="expression" dxfId="37" priority="38">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W30 W48 W66">
-    <cfRule type="expression" dxfId="36" priority="37">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W33 W51 W69">
-    <cfRule type="expression" dxfId="35" priority="36">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W35 W53 W71">
-    <cfRule type="expression" dxfId="34" priority="35">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W37:W38 W40 W55:W56 W58">
-    <cfRule type="expression" dxfId="33" priority="34">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W36 W54">
-    <cfRule type="expression" dxfId="32" priority="33">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W39 W57">
-    <cfRule type="expression" dxfId="31" priority="32">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W41 W59">
-    <cfRule type="expression" dxfId="30" priority="31">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W11:W12 W14">
-    <cfRule type="expression" dxfId="29" priority="30">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W10">
-    <cfRule type="expression" dxfId="28" priority="29">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W13">
-    <cfRule type="expression" dxfId="27" priority="28">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W15">
-    <cfRule type="expression" dxfId="26" priority="27">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W17:W18 W20">
-    <cfRule type="expression" dxfId="25" priority="26">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W16">
-    <cfRule type="expression" dxfId="24" priority="25">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W19">
-    <cfRule type="expression" dxfId="23" priority="24">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W21:W23">
-    <cfRule type="expression" dxfId="22" priority="23">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W73:W74 W76 W91:W92 W109:W110 W94 W112 W121:W122">
-    <cfRule type="expression" dxfId="21" priority="22">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W72 W90 W108 W120">
-    <cfRule type="expression" dxfId="20" priority="21">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W75 W93 W111">
-    <cfRule type="expression" dxfId="19" priority="20">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W77 W95 W113">
-    <cfRule type="expression" dxfId="18" priority="19">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W79:W80 W82 W97:W98 W115:W116 W100 W118">
-    <cfRule type="expression" dxfId="17" priority="18">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W78 W96 W114">
-    <cfRule type="expression" dxfId="16" priority="17">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W81 W99 W117">
-    <cfRule type="expression" dxfId="15" priority="16">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W83 W101 W119">
-    <cfRule type="expression" dxfId="14" priority="15">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W85:W86 W88 W103:W104 W106">
-    <cfRule type="expression" dxfId="13" priority="14">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W84 W102">
-    <cfRule type="expression" dxfId="12" priority="13">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W87 W105">
-    <cfRule type="expression" dxfId="11" priority="12">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W89 W107">
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W129:W130 W137:W138 W145:W146 W153:W154 W161:W162">
-    <cfRule type="expression" dxfId="9" priority="10">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W128 W136 W144 W152 W160">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W123:W124 W126 W131:W132 W139:W140 W147:W148 W155:W156 W163 W134 W142 W150 W158">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W125 W133 W141 W149 W157">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W127 W135 W143 W151 W159">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W170:W171 W178:W179 W186:W187 W194:W195">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W169 W177 W185 W193">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W164:W165 W167 W172:W173 W180:W181 W188:W189 W196:W197 W175 W183 W191 W199">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W166 W174 W182 W190 W198">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W168 W176 W184 W192 W200">
+  <conditionalFormatting sqref="W30:W200">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
